--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全台各種用水" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="各區每人每天平均用水" sheetId="3" r:id="rId3"/>
     <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>項目</t>
   </si>
@@ -165,6 +165,35 @@
   </si>
   <si>
     <t>月降雨量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月降雨量</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,18 +205,18 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -204,6 +233,14 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +475,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,9 +786,9 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,7 +870,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,7 +911,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,7 +952,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,9 +1007,9 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1109,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1159,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1209,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1359,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1409,7 @@
         <v>1924.09</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1459,7 @@
         <v>4854.0600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>2462.5700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1559,7 @@
         <v>2492.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1609,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1653,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1697,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1741,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1825,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1869,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1913,7 @@
         <v>3950.09</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1957,7 @@
         <v>6216.06</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +2001,7 @@
         <v>3734.57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2045,7 @@
         <v>2622.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2049,7 +2089,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2107,9 +2147,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2165,7 +2205,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="21">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2261,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="21.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2277,7 +2317,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="21">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2373,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="21.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2429,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="21">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2445,7 +2485,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="21.75" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2501,7 +2541,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="21">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2557,7 +2597,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="21.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +2653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="21">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2655,7 +2695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="21.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2697,7 +2737,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="21">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2793,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="21.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2817,18 +2857,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2872,7 +2912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2916,7 +2956,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2960,7 +3000,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3004,7 +3044,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3048,7 +3088,7 @@
         <v>289.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3092,7 +3132,7 @@
         <v>311.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3136,7 +3176,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3220,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3264,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3268,7 +3308,7 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3312,7 +3352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3356,7 +3396,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3440,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3444,7 +3484,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3488,7 +3528,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +3572,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3576,7 +3616,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3620,7 +3660,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3664,7 +3704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3708,7 +3748,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3752,7 +3792,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3796,7 +3836,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3840,7 +3880,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3884,7 +3924,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3928,7 +3968,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3970,11 +4010,67 @@
       </c>
       <c r="N26">
         <v>25.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C2:C26)/25</f>
+        <v>102.42799999999997</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D2:D26)/25</f>
+        <v>134.20400000000001</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E2:E26)/25</f>
+        <v>126.464</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F2:F26)/25</f>
+        <v>143.572</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G2:G26)/25</f>
+        <v>233.65199999999996</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H2:H26)/25</f>
+        <v>307.28800000000001</v>
+      </c>
+      <c r="I27">
+        <f>SUM(I2:I26)/25</f>
+        <v>275.20400000000001</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J2:J26)/25</f>
+        <v>334.88400000000001</v>
+      </c>
+      <c r="K27">
+        <f>SUM(K2:K26)/25</f>
+        <v>337.28399999999993</v>
+      </c>
+      <c r="L27">
+        <f>SUM(L2:L26)/25</f>
+        <v>218.04000000000005</v>
+      </c>
+      <c r="M27">
+        <f>SUM(M2:M26)/25</f>
+        <v>153.92399999999995</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N2:N26)/25</f>
+        <v>107.12000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -173,15 +173,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平均</t>
+      <t>台灣平均</t>
     </r>
     <r>
       <rPr>
@@ -2860,7 +2852,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4020,51 +4012,51 @@
         <v>50</v>
       </c>
       <c r="C27">
-        <f>SUM(C2:C26)/25</f>
+        <f t="shared" ref="C27:N27" si="0">SUM(C2:C26)/25</f>
         <v>102.42799999999997</v>
       </c>
       <c r="D27">
-        <f>SUM(D2:D26)/25</f>
+        <f t="shared" si="0"/>
         <v>134.20400000000001</v>
       </c>
       <c r="E27">
-        <f>SUM(E2:E26)/25</f>
+        <f t="shared" si="0"/>
         <v>126.464</v>
       </c>
       <c r="F27">
-        <f>SUM(F2:F26)/25</f>
+        <f t="shared" si="0"/>
         <v>143.572</v>
       </c>
       <c r="G27">
-        <f>SUM(G2:G26)/25</f>
+        <f t="shared" si="0"/>
         <v>233.65199999999996</v>
       </c>
       <c r="H27">
-        <f>SUM(H2:H26)/25</f>
+        <f t="shared" si="0"/>
         <v>307.28800000000001</v>
       </c>
       <c r="I27">
-        <f>SUM(I2:I26)/25</f>
+        <f t="shared" si="0"/>
         <v>275.20400000000001</v>
       </c>
       <c r="J27">
-        <f>SUM(J2:J26)/25</f>
+        <f t="shared" si="0"/>
         <v>334.88400000000001</v>
       </c>
       <c r="K27">
-        <f>SUM(K2:K26)/25</f>
+        <f t="shared" si="0"/>
         <v>337.28399999999993</v>
       </c>
       <c r="L27">
-        <f>SUM(L2:L26)/25</f>
+        <f t="shared" si="0"/>
         <v>218.04000000000005</v>
       </c>
       <c r="M27">
-        <f>SUM(M2:M26)/25</f>
+        <f t="shared" si="0"/>
         <v>153.92399999999995</v>
       </c>
       <c r="N27">
-        <f>SUM(N2:N26)/25</f>
+        <f t="shared" si="0"/>
         <v>107.12000000000002</v>
       </c>
     </row>

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全台各種用水" sheetId="1" r:id="rId1"/>
@@ -172,20 +172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>台灣平均</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月降雨量</t>
-    </r>
+    <t>月降雨量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,18 +184,18 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -229,7 +216,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -397,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +456,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,9 +768,9 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +811,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,7 +852,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,7 +893,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,7 +934,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,9 +989,9 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1041,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1091,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1141,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1201,7 +1191,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1341,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1391,7 @@
         <v>1924.09</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1441,7 @@
         <v>4854.0600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1491,7 @@
         <v>2462.5700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1541,7 @@
         <v>2492.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1591,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1635,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +1679,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1723,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1807,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1851,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1895,7 @@
         <v>3950.09</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1939,7 @@
         <v>6216.06</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +1983,7 @@
         <v>3734.57</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2027,7 @@
         <v>2622.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2081,7 +2071,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2139,9 +2129,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1">
+    <row r="1" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2197,7 +2187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21">
+    <row r="2" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -2253,7 +2243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1">
+    <row r="3" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2309,7 +2299,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="21">
+    <row r="4" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2365,7 +2355,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21.75" thickBot="1">
+    <row r="5" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21">
+    <row r="6" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2477,7 +2467,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="21.75" thickBot="1">
+    <row r="7" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2523,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="21">
+    <row r="8" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2589,7 +2579,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21.75" thickBot="1">
+    <row r="9" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +2635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="21">
+    <row r="10" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21.75" thickBot="1">
+    <row r="11" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2729,7 +2719,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21">
+    <row r="12" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2785,7 +2775,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="21.75" thickBot="1">
+    <row r="13" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2851,16 +2841,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2904,7 +2894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2948,7 +2938,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2992,7 +2982,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3036,7 +3026,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3080,7 +3070,7 @@
         <v>289.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3124,7 +3114,7 @@
         <v>311.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3158,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3212,7 +3202,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3256,7 +3246,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3300,7 +3290,7 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3378,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3432,7 +3422,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3476,7 +3466,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3520,7 +3510,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +3554,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3608,7 +3598,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3652,7 +3642,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3696,7 +3686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3740,7 +3730,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3784,7 +3774,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3828,7 +3818,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3872,7 +3862,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3916,7 +3906,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3950,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4004,11 +3994,11 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C27">

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -11,13 +11,14 @@
     <sheet name="各區各種用水" sheetId="2" r:id="rId2"/>
     <sheet name="各區每人每天平均用水" sheetId="3" r:id="rId3"/>
     <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="地區整理" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
   <si>
     <t>項目</t>
   </si>
@@ -173,6 +174,54 @@
   </si>
   <si>
     <t>月降雨量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域用降雨量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2839,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4050,9 +4099,1560 @@
         <v>107.12000000000002</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1168.1999999999998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1505.8</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1374.3000000000002</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1215.8</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1527.4999999999998</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1725.6</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1182.3</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1795.1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2795.9</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2247.3000000000002</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1758.9</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1241.9000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>282.40000000000003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>586.5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>695.2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1079</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1857.3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2439</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2395.1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2626.1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1490.7</v>
+      </c>
+      <c r="L29" s="5">
+        <v>408.9</v>
+      </c>
+      <c r="M29" s="5">
+        <v>205.39999999999998</v>
+      </c>
+      <c r="N29" s="5">
+        <v>234.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5">
+        <v>51.199999999999996</v>
+      </c>
+      <c r="D30" s="5">
+        <v>73.2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>97.9</v>
+      </c>
+      <c r="F30" s="5">
+        <v>185.8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>529.4</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1160.9000000000001</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1150.3999999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1272.5999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>750.8</v>
+      </c>
+      <c r="L30" s="5">
+        <v>187</v>
+      </c>
+      <c r="M30" s="5">
+        <v>89.8</v>
+      </c>
+      <c r="N30" s="5">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>597.19999999999993</v>
+      </c>
+      <c r="D31" s="5">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="E31" s="5">
+        <v>521.4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1178.8</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1511.9999999999998</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1499.1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1827.1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2412.5</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1741.1000000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1032.1000000000001</v>
+      </c>
+      <c r="N31" s="5">
+        <v>622.29999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <f>SUM(C30:C31)</f>
+        <v>648.4</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:N32" si="1">SUM(D30:D31)</f>
+        <v>709.90000000000009</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>619.29999999999995</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="1"/>
+        <v>787.5</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>1708.1999999999998</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>2672.8999999999996</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="1"/>
+        <v>2649.5</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="1"/>
+        <v>3099.7</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>3163.3</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="1"/>
+        <v>1928.1000000000001</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>1121.9000000000001</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="1"/>
+        <v>678.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5">
+        <v>103.9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>174.8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>194.5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>179.3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>216.1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>243.4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="J2" s="5">
+        <v>202.9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="L2" s="5">
+        <v>173.9</v>
+      </c>
+      <c r="M2" s="5">
+        <v>120.7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>294.3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>329.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>281.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>247.9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>321.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>345.8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="J3" s="5">
+        <v>422.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>758.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>703.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>534.70000000000005</v>
+      </c>
+      <c r="N3" s="5">
+        <v>357.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <v>83.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>170.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>180.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>177.8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>234.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="I4" s="5">
+        <v>245.1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="K4" s="5">
+        <v>360.5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>148.9</v>
+      </c>
+      <c r="M4" s="5">
+        <v>83.1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>232.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>273.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>227.1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>207.2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>314.8</v>
+      </c>
+      <c r="I5" s="5">
+        <v>247.7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>439.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>717.4</v>
+      </c>
+      <c r="L5" s="5">
+        <v>683.9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>488.8</v>
+      </c>
+      <c r="N5" s="5">
+        <v>289.10000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>331.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>397</v>
+      </c>
+      <c r="E6" s="5">
+        <v>321</v>
+      </c>
+      <c r="F6" s="5">
+        <v>242</v>
+      </c>
+      <c r="G6" s="5">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="I6" s="5">
+        <v>148.4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>210.1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>423.5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>400.3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>399.6</v>
+      </c>
+      <c r="N6" s="5">
+        <v>311.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5">
+        <v>122.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5">
+        <v>169.5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>161.6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>203.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>194.1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>125.8</v>
+      </c>
+      <c r="J7" s="5">
+        <v>198</v>
+      </c>
+      <c r="K7" s="5">
+        <v>236.9</v>
+      </c>
+      <c r="L7" s="5">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="M7" s="5">
+        <v>132</v>
+      </c>
+      <c r="N7" s="5">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>1168.1999999999998</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:N8" si="0">SUM(D2:D7)</f>
+        <v>1505.8</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>1374.3000000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1215.8</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>1527.4999999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1725.6</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>1182.3</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1795.1</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>2795.9</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>2247.3000000000002</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>1758.9</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>1241.9000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>57.4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>63.4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>103</v>
+      </c>
+      <c r="G11" s="5">
+        <v>176.2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>314</v>
+      </c>
+      <c r="I11" s="5">
+        <v>369.9</v>
+      </c>
+      <c r="J11" s="5">
+        <v>380.2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>222.6</v>
+      </c>
+      <c r="L11" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5">
+        <v>30.3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>89.8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>103</v>
+      </c>
+      <c r="F12" s="5">
+        <v>145.4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>231.5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>331.2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="J12" s="5">
+        <v>302</v>
+      </c>
+      <c r="K12" s="5">
+        <v>164.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>71.7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>166.5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>254.2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>493.6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>649.6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>668.3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>809.3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>432.9</v>
+      </c>
+      <c r="L13" s="5">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5">
+        <v>83.1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>120.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>139.1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>244.4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>414</v>
+      </c>
+      <c r="H14" s="5">
+        <v>488.2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>445.6</v>
+      </c>
+      <c r="J14" s="5">
+        <v>519.29999999999995</v>
+      </c>
+      <c r="K14" s="5">
+        <v>325.2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="M14" s="5">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N14" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5">
+        <v>49.1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>124.7</v>
+      </c>
+      <c r="F15" s="5">
+        <v>199.5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>328.3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>436.9</v>
+      </c>
+      <c r="I15" s="5">
+        <v>409.9</v>
+      </c>
+      <c r="J15" s="5">
+        <v>403.8</v>
+      </c>
+      <c r="K15" s="5">
+        <v>232.3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>49.7</v>
+      </c>
+      <c r="M15" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="N15" s="5">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>98.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>132.5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>213.7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>219.1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>193.5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>211.5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>113.2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="M16" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="N16" s="5">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C11:C16)</f>
+        <v>282.40000000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:N17" si="1">SUM(D11:D16)</f>
+        <v>586.5</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>695.2</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>1079</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>1857.3</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>2439</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>2395.1</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>2626.1</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
+        <v>1490.7</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
+        <v>408.9</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>205.39999999999998</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>234.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>28.1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>79.5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>173.6</v>
+      </c>
+      <c r="H20" s="5">
+        <v>371.5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>357.7</v>
+      </c>
+      <c r="J20" s="5">
+        <v>395.1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>178</v>
+      </c>
+      <c r="L20" s="5">
+        <v>27.8</v>
+      </c>
+      <c r="M20" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="N20" s="5">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F21" s="5">
+        <v>69.8</v>
+      </c>
+      <c r="G21" s="5">
+        <v>197.4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>415.3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>390.9</v>
+      </c>
+      <c r="J21" s="5">
+        <v>416.7</v>
+      </c>
+      <c r="K21" s="5">
+        <v>241.9</v>
+      </c>
+      <c r="L21" s="5">
+        <v>42.7</v>
+      </c>
+      <c r="M21" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="N21" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>158.4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>374.1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>401.8</v>
+      </c>
+      <c r="J22" s="5">
+        <v>460.8</v>
+      </c>
+      <c r="K22" s="5">
+        <v>330.9</v>
+      </c>
+      <c r="L22" s="5">
+        <v>116.5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>54.4</v>
+      </c>
+      <c r="N22" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C20:C22)</f>
+        <v>51.199999999999996</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:N23" si="2">SUM(D20:D22)</f>
+        <v>73.2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="2"/>
+        <v>97.9</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>185.8</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>529.4</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>1160.9000000000001</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>1150.3999999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>1272.5999999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="2"/>
+        <v>750.8</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>89.8</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>62.2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>94.2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>85.9</v>
+      </c>
+      <c r="F26" s="5">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5">
+        <v>195.4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>221.7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>205.2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>242</v>
+      </c>
+      <c r="K26" s="5">
+        <v>399.2</v>
+      </c>
+      <c r="L26" s="5">
+        <v>362.7</v>
+      </c>
+      <c r="M26" s="5">
+        <v>152.1</v>
+      </c>
+      <c r="N26" s="5">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5">
+        <v>147</v>
+      </c>
+      <c r="D27" s="5">
+        <v>182.3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>127.5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>138.4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>211.7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>214.2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>155.1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>247.8</v>
+      </c>
+      <c r="K27" s="5">
+        <v>470</v>
+      </c>
+      <c r="L27" s="5">
+        <v>442</v>
+      </c>
+      <c r="M27" s="5">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="N27" s="5">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5">
+        <v>42.2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44.3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46.4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G28" s="5">
+        <v>192.2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>364.4</v>
+      </c>
+      <c r="I28" s="5">
+        <v>391</v>
+      </c>
+      <c r="J28" s="5">
+        <v>429.8</v>
+      </c>
+      <c r="K28" s="5">
+        <v>408.7</v>
+      </c>
+      <c r="L28" s="5">
+        <v>182.9</v>
+      </c>
+      <c r="M28" s="5">
+        <v>82.1</v>
+      </c>
+      <c r="N28" s="5">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5">
+        <v>67.2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>71.8</v>
+      </c>
+      <c r="E29" s="5">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="F29" s="5">
+        <v>89.3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>174.3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>196.5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>246.1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="K29" s="5">
+        <v>405.8</v>
+      </c>
+      <c r="L29" s="5">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="M29" s="5">
+        <v>126.6</v>
+      </c>
+      <c r="N29" s="5">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5">
+        <v>248.1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>203.9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>154</v>
+      </c>
+      <c r="F30" s="5">
+        <v>149</v>
+      </c>
+      <c r="G30" s="5">
+        <v>249.3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="I30" s="5">
+        <v>231.2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="K30" s="5">
+        <v>384.2</v>
+      </c>
+      <c r="L30" s="5">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="M30" s="5">
+        <v>267</v>
+      </c>
+      <c r="N30" s="5">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E31" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G31" s="5">
+        <v>155.9</v>
+      </c>
+      <c r="H31" s="5">
+        <v>227.8</v>
+      </c>
+      <c r="I31" s="5">
+        <v>270.5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>302</v>
+      </c>
+      <c r="K31" s="5">
+        <v>344.6</v>
+      </c>
+      <c r="L31" s="5">
+        <v>182.3</v>
+      </c>
+      <c r="M31" s="5">
+        <v>79.2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C26:C31)</f>
+        <v>597.19999999999993</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:N32" si="3">SUM(D26:D31)</f>
+        <v>636.70000000000005</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>521.4</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>601.70000000000005</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>1178.8</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="3"/>
+        <v>1511.9999999999998</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>1499.1</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>1827.1</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="3"/>
+        <v>2412.5</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="3"/>
+        <v>1741.1000000000001</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="3"/>
+        <v>1032.1000000000001</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="3"/>
+        <v>622.29999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="E35" s="5">
+        <v>44.9</v>
+      </c>
+      <c r="F35" s="5">
+        <v>67.7</v>
+      </c>
+      <c r="G35" s="5">
+        <v>135.4</v>
+      </c>
+      <c r="H35" s="5">
+        <v>183.7</v>
+      </c>
+      <c r="I35" s="5">
+        <v>177.3</v>
+      </c>
+      <c r="J35" s="5">
+        <v>207.9</v>
+      </c>
+      <c r="K35" s="5">
+        <v>120</v>
+      </c>
+      <c r="L35" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="M35" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="N35" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="E36" s="5">
+        <v>59.5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>88.3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>118.3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>153.9</v>
+      </c>
+      <c r="I36" s="5">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="J36" s="5">
+        <v>181</v>
+      </c>
+      <c r="K36" s="5">
+        <v>112.7</v>
+      </c>
+      <c r="L36" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="M36" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="N36" s="5">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C35:C36)</f>
+        <v>34.4</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" ref="D37:N37" si="4">SUM(D35:D36)</f>
+        <v>81.5</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="4"/>
+        <v>104.4</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="4"/>
+        <v>253.7</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="4"/>
+        <v>337.6</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="4"/>
+        <v>335</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="4"/>
+        <v>388.9</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="4"/>
+        <v>232.7</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="4"/>
+        <v>41.8</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="4"/>
+        <v>41.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20736" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全台各種用水" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>區域用降雨量</t>
+    <t>各區月降雨量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,9 +817,9 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +860,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +942,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,7 +983,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,9 +1038,9 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1924.09</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>4854.0600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>2462.5700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>2492.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3950.09</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>6216.06</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3734.57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>2622.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2178,9 +2178,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2890,16 +2890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>289.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>311.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>49</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>107.12000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>57</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1241.9000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>234.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>59</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>60</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>622.29999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>61</v>
       </c>
@@ -4346,14 +4346,14 @@
       <selection activeCell="C37" sqref="C37:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>289.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>311.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -4670,12 +4670,12 @@
         <v>1241.9000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -4992,12 +4992,12 @@
         <v>234.9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5182,12 +5182,12 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -5504,12 +5504,12 @@
         <v>622.29999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -2890,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4195,40 +4195,40 @@
         <v>62</v>
       </c>
       <c r="C30" s="5">
-        <v>51.199999999999996</v>
+        <v>68.699999999999989</v>
       </c>
       <c r="D30" s="5">
-        <v>73.2</v>
+        <v>123.9</v>
       </c>
       <c r="E30" s="5">
-        <v>97.9</v>
+        <v>157.4</v>
       </c>
       <c r="F30" s="5">
-        <v>185.8</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="G30" s="5">
-        <v>529.4</v>
+        <v>647.69999999999993</v>
       </c>
       <c r="H30" s="5">
-        <v>1160.9000000000001</v>
+        <v>1314.8000000000002</v>
       </c>
       <c r="I30" s="5">
-        <v>1150.3999999999999</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="J30" s="5">
-        <v>1272.5999999999999</v>
+        <v>1453.6</v>
       </c>
       <c r="K30" s="5">
-        <v>750.8</v>
+        <v>863.5</v>
       </c>
       <c r="L30" s="5">
-        <v>187</v>
+        <v>215.4</v>
       </c>
       <c r="M30" s="5">
-        <v>89.8</v>
+        <v>111</v>
       </c>
       <c r="N30" s="5">
-        <v>56.5</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4283,52 +4283,40 @@
         <v>62</v>
       </c>
       <c r="C32" s="5">
-        <f>SUM(C30:C31)</f>
-        <v>648.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32:N32" si="1">SUM(D30:D31)</f>
-        <v>709.90000000000009</v>
+        <v>30.8</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
-        <v>619.29999999999995</v>
+        <v>44.9</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="1"/>
-        <v>787.5</v>
+        <v>67.7</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="1"/>
-        <v>1708.1999999999998</v>
+        <v>135.4</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
-        <v>2672.8999999999996</v>
+        <v>183.7</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="1"/>
-        <v>2649.5</v>
+        <v>177.3</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="1"/>
-        <v>3099.7</v>
+        <v>207.9</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="1"/>
-        <v>3163.3</v>
+        <v>120</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="1"/>
-        <v>1928.1000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="1"/>
-        <v>1121.9000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="1"/>
-        <v>678.8</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4342,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:N37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" activeCellId="4" sqref="C8:N8 C17:N17 C24:N24 C33:N33 C37:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5130,471 +5118,497 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>59.5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>88.3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>118.3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>153.9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>181</v>
+      </c>
+      <c r="K23" s="5">
+        <v>112.7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="M23" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="C23">
-        <f>SUM(C20:C22)</f>
-        <v>51.199999999999996</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:N23" si="2">SUM(D20:D22)</f>
-        <v>73.2</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="C24">
+        <f>SUM(C20:C23)</f>
+        <v>68.699999999999989</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:N24" si="2">SUM(D20:D23)</f>
+        <v>123.9</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>97.9</v>
-      </c>
-      <c r="F23" s="5">
+        <v>157.4</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>185.8</v>
-      </c>
-      <c r="G23" s="5">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>529.4</v>
-      </c>
-      <c r="H23" s="5">
+        <v>647.69999999999993</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>1160.9000000000001</v>
-      </c>
-      <c r="I23" s="5">
+        <v>1314.8000000000002</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>1150.3999999999999</v>
-      </c>
-      <c r="J23" s="5">
+        <v>1308.0999999999999</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
-        <v>1272.5999999999999</v>
-      </c>
-      <c r="K23" s="5">
+        <v>1453.6</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>750.8</v>
-      </c>
-      <c r="L23" s="5">
+        <v>863.5</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="M23" s="5">
+        <v>215.4</v>
+      </c>
+      <c r="M24" s="5">
         <f t="shared" si="2"/>
-        <v>89.8</v>
-      </c>
-      <c r="N23" s="5">
+        <v>111</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="2"/>
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5">
-        <v>62.2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>94.2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>85.9</v>
-      </c>
-      <c r="F26" s="5">
-        <v>87</v>
-      </c>
-      <c r="G26" s="5">
-        <v>195.4</v>
-      </c>
-      <c r="H26" s="5">
-        <v>221.7</v>
-      </c>
-      <c r="I26" s="5">
-        <v>205.2</v>
-      </c>
-      <c r="J26" s="5">
-        <v>242</v>
-      </c>
-      <c r="K26" s="5">
-        <v>399.2</v>
-      </c>
-      <c r="L26" s="5">
-        <v>362.7</v>
-      </c>
-      <c r="M26" s="5">
-        <v>152.1</v>
-      </c>
-      <c r="N26" s="5">
-        <v>69.2</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="5">
-        <v>147</v>
+        <v>62.2</v>
       </c>
       <c r="D27" s="5">
-        <v>182.3</v>
+        <v>94.2</v>
       </c>
       <c r="E27" s="5">
-        <v>127.5</v>
+        <v>85.9</v>
       </c>
       <c r="F27" s="5">
-        <v>138.4</v>
+        <v>87</v>
       </c>
       <c r="G27" s="5">
-        <v>211.7</v>
+        <v>195.4</v>
       </c>
       <c r="H27" s="5">
-        <v>214.2</v>
+        <v>221.7</v>
       </c>
       <c r="I27" s="5">
-        <v>155.1</v>
+        <v>205.2</v>
       </c>
       <c r="J27" s="5">
-        <v>247.8</v>
+        <v>242</v>
       </c>
       <c r="K27" s="5">
-        <v>470</v>
+        <v>399.2</v>
       </c>
       <c r="L27" s="5">
-        <v>442</v>
+        <v>362.7</v>
       </c>
       <c r="M27" s="5">
-        <v>325.10000000000002</v>
+        <v>152.1</v>
       </c>
       <c r="N27" s="5">
-        <v>176.6</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="5">
-        <v>42.2</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5">
-        <v>44.3</v>
+        <v>182.3</v>
       </c>
       <c r="E28" s="5">
-        <v>46.4</v>
+        <v>127.5</v>
       </c>
       <c r="F28" s="5">
-        <v>72.400000000000006</v>
+        <v>138.4</v>
       </c>
       <c r="G28" s="5">
-        <v>192.2</v>
+        <v>211.7</v>
       </c>
       <c r="H28" s="5">
-        <v>364.4</v>
+        <v>214.2</v>
       </c>
       <c r="I28" s="5">
-        <v>391</v>
+        <v>155.1</v>
       </c>
       <c r="J28" s="5">
-        <v>429.8</v>
+        <v>247.8</v>
       </c>
       <c r="K28" s="5">
-        <v>408.7</v>
+        <v>470</v>
       </c>
       <c r="L28" s="5">
-        <v>182.9</v>
+        <v>442</v>
       </c>
       <c r="M28" s="5">
-        <v>82.1</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="N28" s="5">
-        <v>47.3</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5">
-        <v>67.2</v>
+        <v>42.2</v>
       </c>
       <c r="D29" s="5">
-        <v>71.8</v>
+        <v>44.3</v>
       </c>
       <c r="E29" s="5">
-        <v>67.099999999999994</v>
+        <v>46.4</v>
       </c>
       <c r="F29" s="5">
-        <v>89.3</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="G29" s="5">
-        <v>174.3</v>
+        <v>192.2</v>
       </c>
       <c r="H29" s="5">
-        <v>196.5</v>
+        <v>364.4</v>
       </c>
       <c r="I29" s="5">
-        <v>246.1</v>
+        <v>391</v>
       </c>
       <c r="J29" s="5">
-        <v>317.60000000000002</v>
+        <v>429.8</v>
       </c>
       <c r="K29" s="5">
-        <v>405.8</v>
+        <v>408.7</v>
       </c>
       <c r="L29" s="5">
-        <v>265.60000000000002</v>
+        <v>182.9</v>
       </c>
       <c r="M29" s="5">
-        <v>126.6</v>
+        <v>82.1</v>
       </c>
       <c r="N29" s="5">
-        <v>76.5</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="5">
-        <v>248.1</v>
+        <v>67.2</v>
       </c>
       <c r="D30" s="5">
-        <v>203.9</v>
+        <v>71.8</v>
       </c>
       <c r="E30" s="5">
-        <v>154</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F30" s="5">
-        <v>149</v>
+        <v>89.3</v>
       </c>
       <c r="G30" s="5">
-        <v>249.3</v>
+        <v>174.3</v>
       </c>
       <c r="H30" s="5">
-        <v>287.39999999999998</v>
+        <v>196.5</v>
       </c>
       <c r="I30" s="5">
-        <v>231.2</v>
+        <v>246.1</v>
       </c>
       <c r="J30" s="5">
-        <v>287.89999999999998</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="K30" s="5">
-        <v>384.2</v>
+        <v>405.8</v>
       </c>
       <c r="L30" s="5">
-        <v>305.60000000000002</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="M30" s="5">
-        <v>267</v>
+        <v>126.6</v>
       </c>
       <c r="N30" s="5">
-        <v>212.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="5">
+        <v>248.1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>203.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>154</v>
+      </c>
+      <c r="F31" s="5">
+        <v>149</v>
+      </c>
+      <c r="G31" s="5">
+        <v>249.3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="I31" s="5">
+        <v>231.2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="K31" s="5">
+        <v>384.2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="M31" s="5">
+        <v>267</v>
+      </c>
+      <c r="N31" s="5">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5">
         <v>30.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>40.200000000000003</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>40.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>65.599999999999994</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>155.9</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <v>227.8</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <v>270.5</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="5">
         <v>302</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K32" s="5">
         <v>344.6</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="5">
         <v>182.3</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M32" s="5">
         <v>79.2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N32" s="5">
         <v>40.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="C32">
-        <f>SUM(C26:C31)</f>
+      <c r="C33">
+        <f>SUM(C27:C32)</f>
         <v>597.19999999999993</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" ref="D32:N32" si="3">SUM(D26:D31)</f>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:N33" si="3">SUM(D27:D32)</f>
         <v>636.70000000000005</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <f t="shared" si="3"/>
         <v>521.4</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="5">
         <f t="shared" si="3"/>
         <v>601.70000000000005</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
         <v>1178.8</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="5">
         <f t="shared" si="3"/>
         <v>1511.9999999999998</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I33" s="5">
         <f t="shared" si="3"/>
         <v>1499.1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <f t="shared" si="3"/>
         <v>1827.1</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>2412.5</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="3"/>
         <v>1741.1000000000001</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M33" s="5">
         <f t="shared" si="3"/>
         <v>1032.1000000000001</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N33" s="5">
         <f t="shared" si="3"/>
         <v>622.29999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D35" s="5">
-        <v>30.8</v>
-      </c>
-      <c r="E35" s="5">
-        <v>44.9</v>
-      </c>
-      <c r="F35" s="5">
-        <v>67.7</v>
-      </c>
-      <c r="G35" s="5">
-        <v>135.4</v>
-      </c>
-      <c r="H35" s="5">
-        <v>183.7</v>
-      </c>
-      <c r="I35" s="5">
-        <v>177.3</v>
-      </c>
-      <c r="J35" s="5">
-        <v>207.9</v>
-      </c>
-      <c r="K35" s="5">
-        <v>120</v>
-      </c>
-      <c r="L35" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="M35" s="5">
-        <v>20.6</v>
-      </c>
-      <c r="N35" s="5">
-        <v>17</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="5">
-        <v>17.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D36" s="5">
-        <v>50.7</v>
+        <v>30.8</v>
       </c>
       <c r="E36" s="5">
-        <v>59.5</v>
+        <v>44.9</v>
       </c>
       <c r="F36" s="5">
-        <v>88.3</v>
+        <v>67.7</v>
       </c>
       <c r="G36" s="5">
-        <v>118.3</v>
+        <v>135.4</v>
       </c>
       <c r="H36" s="5">
-        <v>153.9</v>
+        <v>183.7</v>
       </c>
       <c r="I36" s="5">
-        <v>157.69999999999999</v>
+        <v>177.3</v>
       </c>
       <c r="J36" s="5">
-        <v>181</v>
+        <v>207.9</v>
       </c>
       <c r="K36" s="5">
-        <v>112.7</v>
+        <v>120</v>
       </c>
       <c r="L36" s="5">
-        <v>28.4</v>
+        <v>31.5</v>
       </c>
       <c r="M36" s="5">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="N36" s="5">
-        <v>24.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5602,52 +5616,52 @@
         <v>52</v>
       </c>
       <c r="C37">
-        <f>SUM(C35:C36)</f>
-        <v>34.4</v>
+        <f>SUM(C36:C36)</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:N37" si="4">SUM(D35:D36)</f>
-        <v>81.5</v>
+        <f>SUM(D36:D36)</f>
+        <v>30.8</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="4"/>
-        <v>104.4</v>
+        <f>SUM(E36:E36)</f>
+        <v>44.9</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
-        <v>156</v>
+        <f>SUM(F36:F36)</f>
+        <v>67.7</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="4"/>
-        <v>253.7</v>
+        <f>SUM(G36:G36)</f>
+        <v>135.4</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="4"/>
-        <v>337.6</v>
+        <f>SUM(H36:H36)</f>
+        <v>183.7</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="4"/>
-        <v>335</v>
+        <f>SUM(I36:I36)</f>
+        <v>177.3</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="4"/>
-        <v>388.9</v>
+        <f>SUM(J36:J36)</f>
+        <v>207.9</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
-        <v>232.7</v>
+        <f>SUM(K36:K36)</f>
+        <v>120</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="4"/>
-        <v>59.9</v>
+        <f>SUM(L36:L36)</f>
+        <v>31.5</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="4"/>
-        <v>41.8</v>
+        <f>SUM(M36:M36)</f>
+        <v>20.6</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="4"/>
-        <v>41.2</v>
+        <f>SUM(N36:N36)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
   <si>
     <t>項目</t>
   </si>
@@ -205,19 +205,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>東部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>離島</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2888,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2944,880 +2932,880 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>103.9</v>
-      </c>
-      <c r="D2">
-        <v>174.8</v>
-      </c>
-      <c r="E2">
-        <v>194.5</v>
-      </c>
-      <c r="F2">
-        <v>179.3</v>
-      </c>
-      <c r="G2">
-        <v>216.1</v>
-      </c>
-      <c r="H2">
-        <v>243.4</v>
-      </c>
-      <c r="I2">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="J2">
-        <v>202.9</v>
-      </c>
-      <c r="K2">
-        <v>299.10000000000002</v>
-      </c>
-      <c r="L2">
-        <v>173.9</v>
-      </c>
-      <c r="M2">
-        <v>120.7</v>
-      </c>
-      <c r="N2">
-        <v>97.6</v>
+      <c r="A2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1168.1999999999998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1505.8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1374.3000000000002</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1215.8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1527.4999999999998</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1725.6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1182.3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1795.1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2795.9</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2247.3000000000002</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1758.9</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1241.9000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>294.3</v>
-      </c>
-      <c r="D3">
-        <v>329.2</v>
-      </c>
-      <c r="E3">
-        <v>281.8</v>
-      </c>
-      <c r="F3">
-        <v>247.9</v>
-      </c>
-      <c r="G3">
-        <v>321.2</v>
-      </c>
-      <c r="H3">
-        <v>345.8</v>
-      </c>
-      <c r="I3">
-        <v>266.10000000000002</v>
-      </c>
-      <c r="J3">
-        <v>422.5</v>
-      </c>
-      <c r="K3">
-        <v>758.5</v>
-      </c>
-      <c r="L3">
-        <v>703.5</v>
-      </c>
-      <c r="M3">
-        <v>534.70000000000005</v>
-      </c>
-      <c r="N3">
-        <v>357.6</v>
+      <c r="A3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5">
+        <v>282.40000000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>586.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>695.2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1079</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1857.3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2439</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2395.1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2626.1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1490.7</v>
+      </c>
+      <c r="L3" s="5">
+        <v>408.9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>205.39999999999998</v>
+      </c>
+      <c r="N3" s="5">
+        <v>234.9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>83.2</v>
-      </c>
-      <c r="D4">
-        <v>170.3</v>
-      </c>
-      <c r="E4">
-        <v>180.4</v>
-      </c>
-      <c r="F4">
-        <v>177.8</v>
-      </c>
-      <c r="G4">
-        <v>234.5</v>
-      </c>
-      <c r="H4">
-        <v>325.89999999999998</v>
-      </c>
-      <c r="I4">
-        <v>245.1</v>
-      </c>
-      <c r="J4">
-        <v>322.10000000000002</v>
-      </c>
-      <c r="K4">
-        <v>360.5</v>
-      </c>
-      <c r="L4">
-        <v>148.9</v>
-      </c>
-      <c r="M4">
-        <v>83.1</v>
-      </c>
-      <c r="N4">
-        <v>73.3</v>
+      <c r="A4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5">
+        <v>68.699999999999989</v>
+      </c>
+      <c r="D4" s="5">
+        <v>123.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>157.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>647.69999999999993</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1314.8000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1308.0999999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1453.6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>863.5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>215.4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>111</v>
+      </c>
+      <c r="N4" s="5">
+        <v>80.7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>232.6</v>
-      </c>
-      <c r="D5">
-        <v>273.5</v>
-      </c>
-      <c r="E5">
-        <v>227.1</v>
-      </c>
-      <c r="F5">
-        <v>207.2</v>
-      </c>
-      <c r="G5">
-        <v>267.39999999999998</v>
-      </c>
-      <c r="H5">
-        <v>314.8</v>
-      </c>
-      <c r="I5">
-        <v>247.7</v>
-      </c>
-      <c r="J5">
-        <v>439.5</v>
-      </c>
-      <c r="K5">
-        <v>717.4</v>
-      </c>
-      <c r="L5">
-        <v>683.9</v>
-      </c>
-      <c r="M5">
-        <v>488.8</v>
-      </c>
-      <c r="N5">
-        <v>289.10000000000002</v>
+      <c r="A5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5">
+        <v>597.19999999999993</v>
+      </c>
+      <c r="D5" s="5">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>521.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1178.8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1511.9999999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1499.1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1827.1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2412.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1741.1000000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1032.1000000000001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>622.29999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>331.6</v>
-      </c>
-      <c r="D6">
-        <v>397</v>
-      </c>
-      <c r="E6">
-        <v>321</v>
-      </c>
-      <c r="F6">
-        <v>242</v>
-      </c>
-      <c r="G6">
-        <v>285.10000000000002</v>
-      </c>
-      <c r="H6">
-        <v>301.60000000000002</v>
-      </c>
-      <c r="I6">
-        <v>148.4</v>
-      </c>
-      <c r="J6">
-        <v>210.1</v>
-      </c>
-      <c r="K6">
-        <v>423.5</v>
-      </c>
-      <c r="L6">
-        <v>400.3</v>
-      </c>
-      <c r="M6">
-        <v>399.6</v>
-      </c>
-      <c r="N6">
-        <v>311.8</v>
+      <c r="A6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44.9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>67.7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>135.4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>183.7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>177.3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>207.9</v>
+      </c>
+      <c r="K6" s="5">
+        <v>120</v>
+      </c>
+      <c r="L6" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="N6" s="5">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7">
-        <v>122.6</v>
+        <v>103.9</v>
       </c>
       <c r="D7">
-        <v>161</v>
+        <v>174.8</v>
       </c>
       <c r="E7">
-        <v>169.5</v>
+        <v>194.5</v>
       </c>
       <c r="F7">
-        <v>161.6</v>
+        <v>179.3</v>
       </c>
       <c r="G7">
-        <v>203.2</v>
+        <v>216.1</v>
       </c>
       <c r="H7">
-        <v>194.1</v>
+        <v>243.4</v>
       </c>
       <c r="I7">
-        <v>125.8</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="J7">
-        <v>198</v>
+        <v>202.9</v>
       </c>
       <c r="K7">
-        <v>236.9</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="L7">
-        <v>136.80000000000001</v>
+        <v>173.9</v>
       </c>
       <c r="M7">
-        <v>132</v>
+        <v>120.7</v>
       </c>
       <c r="N7">
-        <v>112.5</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C8">
-        <v>62.2</v>
+        <v>294.3</v>
       </c>
       <c r="D8">
-        <v>94.2</v>
+        <v>329.2</v>
       </c>
       <c r="E8">
-        <v>85.9</v>
+        <v>281.8</v>
       </c>
       <c r="F8">
-        <v>87</v>
+        <v>247.9</v>
       </c>
       <c r="G8">
-        <v>195.4</v>
+        <v>321.2</v>
       </c>
       <c r="H8">
-        <v>221.7</v>
+        <v>345.8</v>
       </c>
       <c r="I8">
-        <v>205.2</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="J8">
-        <v>242</v>
+        <v>422.5</v>
       </c>
       <c r="K8">
-        <v>399.2</v>
+        <v>758.5</v>
       </c>
       <c r="L8">
-        <v>362.7</v>
+        <v>703.5</v>
       </c>
       <c r="M8">
-        <v>152.1</v>
+        <v>534.70000000000005</v>
       </c>
       <c r="N8">
-        <v>69.2</v>
+        <v>357.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C9">
-        <v>362.8</v>
+        <v>83.2</v>
       </c>
       <c r="D9">
-        <v>329.3</v>
+        <v>170.3</v>
       </c>
       <c r="E9">
-        <v>200.3</v>
+        <v>180.4</v>
       </c>
       <c r="F9">
-        <v>186.9</v>
+        <v>177.8</v>
       </c>
       <c r="G9">
-        <v>261.8</v>
+        <v>234.5</v>
       </c>
       <c r="H9">
-        <v>246</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="I9">
-        <v>177.2</v>
+        <v>245.1</v>
       </c>
       <c r="J9">
-        <v>279.89999999999998</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="K9">
-        <v>535.29999999999995</v>
+        <v>360.5</v>
       </c>
       <c r="L9">
-        <v>744.8</v>
+        <v>148.9</v>
       </c>
       <c r="M9">
-        <v>682</v>
+        <v>83.1</v>
       </c>
       <c r="N9">
-        <v>433.5</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>232.6</v>
       </c>
       <c r="D10">
-        <v>182.3</v>
+        <v>273.5</v>
       </c>
       <c r="E10">
-        <v>127.5</v>
+        <v>227.1</v>
       </c>
       <c r="F10">
-        <v>138.4</v>
+        <v>207.2</v>
       </c>
       <c r="G10">
-        <v>211.7</v>
+        <v>267.39999999999998</v>
       </c>
       <c r="H10">
-        <v>214.2</v>
+        <v>314.8</v>
       </c>
       <c r="I10">
-        <v>155.1</v>
+        <v>247.7</v>
       </c>
       <c r="J10">
-        <v>247.8</v>
+        <v>439.5</v>
       </c>
       <c r="K10">
-        <v>470</v>
+        <v>717.4</v>
       </c>
       <c r="L10">
-        <v>442</v>
+        <v>683.9</v>
       </c>
       <c r="M10">
-        <v>325.10000000000002</v>
+        <v>488.8</v>
       </c>
       <c r="N10">
-        <v>176.6</v>
+        <v>289.10000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>16.899999999999999</v>
+        <v>331.6</v>
       </c>
       <c r="D11">
-        <v>30.8</v>
+        <v>397</v>
       </c>
       <c r="E11">
-        <v>44.9</v>
+        <v>321</v>
       </c>
       <c r="F11">
-        <v>67.7</v>
+        <v>242</v>
       </c>
       <c r="G11">
-        <v>135.4</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="H11">
-        <v>183.7</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="I11">
-        <v>177.3</v>
+        <v>148.4</v>
       </c>
       <c r="J11">
-        <v>207.9</v>
+        <v>210.1</v>
       </c>
       <c r="K11">
-        <v>120</v>
+        <v>423.5</v>
       </c>
       <c r="L11">
-        <v>31.5</v>
+        <v>400.3</v>
       </c>
       <c r="M11">
-        <v>20.6</v>
+        <v>399.6</v>
       </c>
       <c r="N11">
-        <v>17</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C12">
-        <v>17.5</v>
+        <v>122.6</v>
       </c>
       <c r="D12">
-        <v>50.7</v>
+        <v>161</v>
       </c>
       <c r="E12">
-        <v>59.5</v>
+        <v>169.5</v>
       </c>
       <c r="F12">
-        <v>88.3</v>
+        <v>161.6</v>
       </c>
       <c r="G12">
-        <v>118.3</v>
+        <v>203.2</v>
       </c>
       <c r="H12">
-        <v>153.9</v>
+        <v>194.1</v>
       </c>
       <c r="I12">
-        <v>157.69999999999999</v>
+        <v>125.8</v>
       </c>
       <c r="J12">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K12">
-        <v>112.7</v>
+        <v>236.9</v>
       </c>
       <c r="L12">
-        <v>28.4</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="M12">
-        <v>21.2</v>
+        <v>132</v>
       </c>
       <c r="N12">
-        <v>24.2</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>17.3</v>
+        <v>62.2</v>
       </c>
       <c r="D13">
-        <v>28.1</v>
+        <v>94.2</v>
       </c>
       <c r="E13">
-        <v>38.5</v>
+        <v>85.9</v>
       </c>
       <c r="F13">
-        <v>79.5</v>
+        <v>87</v>
       </c>
       <c r="G13">
-        <v>173.6</v>
+        <v>195.4</v>
       </c>
       <c r="H13">
-        <v>371.5</v>
+        <v>221.7</v>
       </c>
       <c r="I13">
-        <v>357.7</v>
+        <v>205.2</v>
       </c>
       <c r="J13">
-        <v>395.1</v>
+        <v>242</v>
       </c>
       <c r="K13">
-        <v>178</v>
+        <v>399.2</v>
       </c>
       <c r="L13">
-        <v>27.8</v>
+        <v>362.7</v>
       </c>
       <c r="M13">
-        <v>16.7</v>
+        <v>152.1</v>
       </c>
       <c r="N13">
-        <v>14.4</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>362.8</v>
       </c>
       <c r="D14">
-        <v>20.5</v>
+        <v>329.3</v>
       </c>
       <c r="E14">
-        <v>38.799999999999997</v>
+        <v>200.3</v>
       </c>
       <c r="F14">
-        <v>69.8</v>
+        <v>186.9</v>
       </c>
       <c r="G14">
-        <v>197.4</v>
+        <v>261.8</v>
       </c>
       <c r="H14">
-        <v>415.3</v>
+        <v>246</v>
       </c>
       <c r="I14">
-        <v>390.9</v>
+        <v>177.2</v>
       </c>
       <c r="J14">
-        <v>416.7</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="K14">
-        <v>241.9</v>
+        <v>535.29999999999995</v>
       </c>
       <c r="L14">
-        <v>42.7</v>
+        <v>744.8</v>
       </c>
       <c r="M14">
-        <v>18.7</v>
+        <v>682</v>
       </c>
       <c r="N14">
-        <v>16.2</v>
+        <v>433.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C15">
-        <v>23.6</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>57.4</v>
+        <v>182.3</v>
       </c>
       <c r="E15">
-        <v>63.4</v>
+        <v>127.5</v>
       </c>
       <c r="F15">
-        <v>103</v>
+        <v>138.4</v>
       </c>
       <c r="G15">
-        <v>176.2</v>
+        <v>211.7</v>
       </c>
       <c r="H15">
-        <v>314</v>
+        <v>214.2</v>
       </c>
       <c r="I15">
-        <v>369.9</v>
+        <v>155.1</v>
       </c>
       <c r="J15">
-        <v>380.2</v>
+        <v>247.8</v>
       </c>
       <c r="K15">
-        <v>222.6</v>
+        <v>470</v>
       </c>
       <c r="L15">
-        <v>27.5</v>
+        <v>442</v>
       </c>
       <c r="M15">
-        <v>15.2</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="N15">
-        <v>21.3</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C16">
-        <v>30.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D16">
-        <v>89.8</v>
+        <v>30.8</v>
       </c>
       <c r="E16">
-        <v>103</v>
+        <v>44.9</v>
       </c>
       <c r="F16">
-        <v>145.4</v>
+        <v>67.7</v>
       </c>
       <c r="G16">
-        <v>231.5</v>
+        <v>135.4</v>
       </c>
       <c r="H16">
-        <v>331.2</v>
+        <v>183.7</v>
       </c>
       <c r="I16">
-        <v>307.89999999999998</v>
+        <v>177.3</v>
       </c>
       <c r="J16">
-        <v>302</v>
+        <v>207.9</v>
       </c>
       <c r="K16">
-        <v>164.5</v>
+        <v>120</v>
       </c>
       <c r="L16">
-        <v>23.2</v>
+        <v>31.5</v>
       </c>
       <c r="M16">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="N16">
-        <v>25.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C17">
-        <v>71.7</v>
+        <v>17.5</v>
       </c>
       <c r="D17">
-        <v>137.30000000000001</v>
+        <v>50.7</v>
       </c>
       <c r="E17">
-        <v>166.5</v>
+        <v>59.5</v>
       </c>
       <c r="F17">
-        <v>254.2</v>
+        <v>88.3</v>
       </c>
       <c r="G17">
-        <v>493.6</v>
+        <v>118.3</v>
       </c>
       <c r="H17">
-        <v>649.6</v>
+        <v>153.9</v>
       </c>
       <c r="I17">
-        <v>668.3</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="J17">
-        <v>809.3</v>
+        <v>181</v>
       </c>
       <c r="K17">
-        <v>432.9</v>
+        <v>112.7</v>
       </c>
       <c r="L17">
-        <v>146.69999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="M17">
-        <v>46.3</v>
+        <v>21.2</v>
       </c>
       <c r="N17">
-        <v>55.9</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18">
-        <v>42.2</v>
+        <v>17.3</v>
       </c>
       <c r="D18">
-        <v>44.3</v>
+        <v>28.1</v>
       </c>
       <c r="E18">
-        <v>46.4</v>
+        <v>38.5</v>
       </c>
       <c r="F18">
-        <v>72.400000000000006</v>
+        <v>79.5</v>
       </c>
       <c r="G18">
-        <v>192.2</v>
+        <v>173.6</v>
       </c>
       <c r="H18">
-        <v>364.4</v>
+        <v>371.5</v>
       </c>
       <c r="I18">
-        <v>391</v>
+        <v>357.7</v>
       </c>
       <c r="J18">
-        <v>429.8</v>
+        <v>395.1</v>
       </c>
       <c r="K18">
-        <v>408.7</v>
+        <v>178</v>
       </c>
       <c r="L18">
-        <v>182.9</v>
+        <v>27.8</v>
       </c>
       <c r="M18">
-        <v>82.1</v>
+        <v>16.7</v>
       </c>
       <c r="N18">
-        <v>47.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C19">
-        <v>83.1</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>120.5</v>
+        <v>20.5</v>
       </c>
       <c r="E19">
-        <v>139.1</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F19">
-        <v>244.4</v>
+        <v>69.8</v>
       </c>
       <c r="G19">
-        <v>414</v>
+        <v>197.4</v>
       </c>
       <c r="H19">
-        <v>488.2</v>
+        <v>415.3</v>
       </c>
       <c r="I19">
-        <v>445.6</v>
+        <v>390.9</v>
       </c>
       <c r="J19">
-        <v>519.29999999999995</v>
+        <v>416.7</v>
       </c>
       <c r="K19">
-        <v>325.2</v>
+        <v>241.9</v>
       </c>
       <c r="L19">
-        <v>144.30000000000001</v>
+        <v>42.7</v>
       </c>
       <c r="M19">
-        <v>77.599999999999994</v>
+        <v>18.7</v>
       </c>
       <c r="N19">
-        <v>70</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C20">
-        <v>64.5</v>
+        <v>23.6</v>
       </c>
       <c r="D20">
-        <v>142.1</v>
+        <v>57.4</v>
       </c>
       <c r="E20">
-        <v>168.1</v>
+        <v>63.4</v>
       </c>
       <c r="F20">
-        <v>164.1</v>
+        <v>103</v>
       </c>
       <c r="G20">
-        <v>232.8</v>
+        <v>176.2</v>
       </c>
       <c r="H20">
-        <v>261.10000000000002</v>
+        <v>314</v>
       </c>
       <c r="I20">
-        <v>141</v>
+        <v>369.9</v>
       </c>
       <c r="J20">
-        <v>182.4</v>
+        <v>380.2</v>
       </c>
       <c r="K20">
-        <v>214.2</v>
+        <v>222.6</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>27.5</v>
       </c>
       <c r="M20">
-        <v>38.1</v>
+        <v>15.2</v>
       </c>
       <c r="N20">
-        <v>47.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C21">
-        <v>17.899999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="D21">
-        <v>24.6</v>
+        <v>89.8</v>
       </c>
       <c r="E21">
-        <v>20.6</v>
+        <v>103</v>
       </c>
       <c r="F21">
-        <v>36.5</v>
+        <v>145.4</v>
       </c>
       <c r="G21">
-        <v>158.4</v>
+        <v>231.5</v>
       </c>
       <c r="H21">
-        <v>374.1</v>
+        <v>331.2</v>
       </c>
       <c r="I21">
-        <v>401.8</v>
+        <v>307.89999999999998</v>
       </c>
       <c r="J21">
-        <v>460.8</v>
+        <v>302</v>
       </c>
       <c r="K21">
-        <v>330.9</v>
+        <v>164.5</v>
       </c>
       <c r="L21">
-        <v>116.5</v>
+        <v>23.2</v>
       </c>
       <c r="M21">
-        <v>54.4</v>
+        <v>18.3</v>
       </c>
       <c r="N21">
         <v>25.9</v>
@@ -3825,499 +3813,579 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C22">
-        <v>67.2</v>
+        <v>71.7</v>
       </c>
       <c r="D22">
-        <v>71.8</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="E22">
-        <v>67.099999999999994</v>
+        <v>166.5</v>
       </c>
       <c r="F22">
-        <v>89.3</v>
+        <v>254.2</v>
       </c>
       <c r="G22">
-        <v>174.3</v>
+        <v>493.6</v>
       </c>
       <c r="H22">
-        <v>196.5</v>
+        <v>649.6</v>
       </c>
       <c r="I22">
-        <v>246.1</v>
+        <v>668.3</v>
       </c>
       <c r="J22">
-        <v>317.60000000000002</v>
+        <v>809.3</v>
       </c>
       <c r="K22">
-        <v>405.8</v>
+        <v>432.9</v>
       </c>
       <c r="L22">
-        <v>265.60000000000002</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="M22">
-        <v>126.6</v>
+        <v>46.3</v>
       </c>
       <c r="N22">
-        <v>76.5</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>248.1</v>
+        <v>42.2</v>
       </c>
       <c r="D23">
-        <v>203.9</v>
+        <v>44.3</v>
       </c>
       <c r="E23">
-        <v>154</v>
+        <v>46.4</v>
       </c>
       <c r="F23">
-        <v>149</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="G23">
-        <v>249.3</v>
+        <v>192.2</v>
       </c>
       <c r="H23">
-        <v>287.39999999999998</v>
+        <v>364.4</v>
       </c>
       <c r="I23">
-        <v>231.2</v>
+        <v>391</v>
       </c>
       <c r="J23">
-        <v>287.89999999999998</v>
+        <v>429.8</v>
       </c>
       <c r="K23">
-        <v>384.2</v>
+        <v>408.7</v>
       </c>
       <c r="L23">
-        <v>305.60000000000002</v>
+        <v>182.9</v>
       </c>
       <c r="M23">
-        <v>267</v>
+        <v>82.1</v>
       </c>
       <c r="N23">
-        <v>212.2</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>49.1</v>
+        <v>83.1</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>120.5</v>
       </c>
       <c r="E24">
-        <v>124.7</v>
+        <v>139.1</v>
       </c>
       <c r="F24">
-        <v>199.5</v>
+        <v>244.4</v>
       </c>
       <c r="G24">
-        <v>328.3</v>
+        <v>414</v>
       </c>
       <c r="H24">
-        <v>436.9</v>
+        <v>488.2</v>
       </c>
       <c r="I24">
-        <v>409.9</v>
+        <v>445.6</v>
       </c>
       <c r="J24">
-        <v>403.8</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="K24">
-        <v>232.3</v>
+        <v>325.2</v>
       </c>
       <c r="L24">
-        <v>49.7</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="M24">
-        <v>31.2</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="N24">
-        <v>36.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C25">
-        <v>30.5</v>
+        <v>64.5</v>
       </c>
       <c r="D25">
-        <v>40.200000000000003</v>
+        <v>142.1</v>
       </c>
       <c r="E25">
-        <v>40.5</v>
+        <v>168.1</v>
       </c>
       <c r="F25">
-        <v>65.599999999999994</v>
+        <v>164.1</v>
       </c>
       <c r="G25">
-        <v>155.9</v>
+        <v>232.8</v>
       </c>
       <c r="H25">
-        <v>227.8</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="I25">
-        <v>270.5</v>
+        <v>141</v>
       </c>
       <c r="J25">
-        <v>302</v>
+        <v>182.4</v>
       </c>
       <c r="K25">
-        <v>344.6</v>
+        <v>214.2</v>
       </c>
       <c r="L25">
-        <v>182.3</v>
+        <v>62</v>
       </c>
       <c r="M25">
-        <v>79.2</v>
+        <v>38.1</v>
       </c>
       <c r="N25">
-        <v>40.5</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C26">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D26">
         <v>24.6</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>20.6</v>
+      </c>
+      <c r="F26">
+        <v>36.5</v>
+      </c>
+      <c r="G26">
+        <v>158.4</v>
+      </c>
+      <c r="H26">
+        <v>374.1</v>
+      </c>
+      <c r="I26">
+        <v>401.8</v>
+      </c>
+      <c r="J26">
+        <v>460.8</v>
+      </c>
+      <c r="K26">
+        <v>330.9</v>
+      </c>
+      <c r="L26">
+        <v>116.5</v>
+      </c>
+      <c r="M26">
+        <v>54.4</v>
+      </c>
+      <c r="N26">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>67.2</v>
+      </c>
+      <c r="D27">
+        <v>71.8</v>
+      </c>
+      <c r="E27">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="F27">
+        <v>89.3</v>
+      </c>
+      <c r="G27">
+        <v>174.3</v>
+      </c>
+      <c r="H27">
+        <v>196.5</v>
+      </c>
+      <c r="I27">
+        <v>246.1</v>
+      </c>
+      <c r="J27">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="K27">
+        <v>405.8</v>
+      </c>
+      <c r="L27">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="M27">
+        <v>126.6</v>
+      </c>
+      <c r="N27">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>248.1</v>
+      </c>
+      <c r="D28">
+        <v>203.9</v>
+      </c>
+      <c r="E28">
+        <v>154</v>
+      </c>
+      <c r="F28">
+        <v>149</v>
+      </c>
+      <c r="G28">
+        <v>249.3</v>
+      </c>
+      <c r="H28">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="I28">
+        <v>231.2</v>
+      </c>
+      <c r="J28">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="K28">
+        <v>384.2</v>
+      </c>
+      <c r="L28">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="M28">
+        <v>267</v>
+      </c>
+      <c r="N28">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>49.1</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>124.7</v>
+      </c>
+      <c r="F29">
+        <v>199.5</v>
+      </c>
+      <c r="G29">
+        <v>328.3</v>
+      </c>
+      <c r="H29">
+        <v>436.9</v>
+      </c>
+      <c r="I29">
+        <v>409.9</v>
+      </c>
+      <c r="J29">
+        <v>403.8</v>
+      </c>
+      <c r="K29">
+        <v>232.3</v>
+      </c>
+      <c r="L29">
+        <v>49.7</v>
+      </c>
+      <c r="M29">
+        <v>31.2</v>
+      </c>
+      <c r="N29">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>30.5</v>
+      </c>
+      <c r="D30">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E30">
+        <v>40.5</v>
+      </c>
+      <c r="F30">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G30">
+        <v>155.9</v>
+      </c>
+      <c r="H30">
+        <v>227.8</v>
+      </c>
+      <c r="I30">
+        <v>270.5</v>
+      </c>
+      <c r="J30">
+        <v>302</v>
+      </c>
+      <c r="K30">
+        <v>344.6</v>
+      </c>
+      <c r="L30">
+        <v>182.3</v>
+      </c>
+      <c r="M30">
+        <v>79.2</v>
+      </c>
+      <c r="N30">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>24.6</v>
+      </c>
+      <c r="D31">
         <v>81.5</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>98.5</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>132.5</v>
       </c>
-      <c r="G26">
+      <c r="G31">
         <v>213.7</v>
       </c>
-      <c r="H26">
+      <c r="H31">
         <v>219.1</v>
       </c>
-      <c r="I26">
+      <c r="I31">
         <v>193.5</v>
       </c>
-      <c r="J26">
+      <c r="J31">
         <v>211.5</v>
       </c>
-      <c r="K26">
+      <c r="K31">
         <v>113.2</v>
       </c>
-      <c r="L26">
+      <c r="L31">
         <v>17.5</v>
       </c>
-      <c r="M26">
+      <c r="M31">
         <v>16.8</v>
       </c>
-      <c r="N26">
+      <c r="N31">
         <v>25.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27">
-        <f t="shared" ref="C27:N27" si="0">SUM(C2:C26)/25</f>
+      <c r="C32">
+        <f t="shared" ref="C32:N32" si="0">SUM(C7:C31)/25</f>
         <v>102.42799999999997</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>134.20400000000001</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>126.464</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>143.572</v>
       </c>
-      <c r="G27">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>233.65199999999996</v>
       </c>
-      <c r="H27">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>307.28800000000001</v>
       </c>
-      <c r="I27">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>275.20400000000001</v>
       </c>
-      <c r="J27">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>334.88400000000001</v>
       </c>
-      <c r="K27">
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>337.28399999999993</v>
       </c>
-      <c r="L27">
+      <c r="L32">
         <f t="shared" si="0"/>
         <v>218.04000000000005</v>
       </c>
-      <c r="M27">
+      <c r="M32">
         <f t="shared" si="0"/>
         <v>153.92399999999995</v>
       </c>
-      <c r="N27">
+      <c r="N32">
         <f t="shared" si="0"/>
         <v>107.12000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1168.1999999999998</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1505.8</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1374.3000000000002</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1215.8</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1527.4999999999998</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1725.6</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1182.3</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1795.1</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2795.9</v>
-      </c>
-      <c r="L28" s="5">
-        <v>2247.3000000000002</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1758.9</v>
-      </c>
-      <c r="N28" s="5">
-        <v>1241.9000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="5">
-        <v>282.40000000000003</v>
-      </c>
-      <c r="D29" s="5">
-        <v>586.5</v>
-      </c>
-      <c r="E29" s="5">
-        <v>695.2</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1079</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1857.3</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2439</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2395.1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>2626.1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1490.7</v>
-      </c>
-      <c r="L29" s="5">
-        <v>408.9</v>
-      </c>
-      <c r="M29" s="5">
-        <v>205.39999999999998</v>
-      </c>
-      <c r="N29" s="5">
-        <v>234.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5">
-        <v>68.699999999999989</v>
-      </c>
-      <c r="D30" s="5">
-        <v>123.9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>157.4</v>
-      </c>
-      <c r="F30" s="5">
-        <v>274.10000000000002</v>
-      </c>
-      <c r="G30" s="5">
-        <v>647.69999999999993</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1314.8000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1308.0999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1453.6</v>
-      </c>
-      <c r="K30" s="5">
-        <v>863.5</v>
-      </c>
-      <c r="L30" s="5">
-        <v>215.4</v>
-      </c>
-      <c r="M30" s="5">
-        <v>111</v>
-      </c>
-      <c r="N30" s="5">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="5">
-        <v>597.19999999999993</v>
-      </c>
-      <c r="D31" s="5">
-        <v>636.70000000000005</v>
-      </c>
-      <c r="E31" s="5">
-        <v>521.4</v>
-      </c>
-      <c r="F31" s="5">
-        <v>601.70000000000005</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1178.8</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1511.9999999999998</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1499.1</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1827.1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>2412.5</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1741.1000000000001</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1032.1000000000001</v>
-      </c>
-      <c r="N31" s="5">
-        <v>622.29999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D32" s="5">
-        <v>30.8</v>
-      </c>
-      <c r="E32" s="5">
-        <v>44.9</v>
-      </c>
-      <c r="F32" s="5">
-        <v>67.7</v>
-      </c>
-      <c r="G32" s="5">
-        <v>135.4</v>
-      </c>
-      <c r="H32" s="5">
-        <v>183.7</v>
-      </c>
-      <c r="I32" s="5">
-        <v>177.3</v>
-      </c>
-      <c r="J32" s="5">
-        <v>207.9</v>
-      </c>
-      <c r="K32" s="5">
-        <v>120</v>
-      </c>
-      <c r="L32" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="M32" s="5">
-        <v>20.6</v>
-      </c>
-      <c r="N32" s="5">
-        <v>17</v>
-      </c>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5616,51 +5684,51 @@
         <v>52</v>
       </c>
       <c r="C37">
-        <f>SUM(C36:C36)</f>
+        <f t="shared" ref="C37:N37" si="4">SUM(C36:C36)</f>
         <v>16.899999999999999</v>
       </c>
       <c r="D37" s="5">
-        <f>SUM(D36:D36)</f>
+        <f t="shared" si="4"/>
         <v>30.8</v>
       </c>
       <c r="E37" s="5">
-        <f>SUM(E36:E36)</f>
+        <f t="shared" si="4"/>
         <v>44.9</v>
       </c>
       <c r="F37" s="5">
-        <f>SUM(F36:F36)</f>
+        <f t="shared" si="4"/>
         <v>67.7</v>
       </c>
       <c r="G37" s="5">
-        <f>SUM(G36:G36)</f>
+        <f t="shared" si="4"/>
         <v>135.4</v>
       </c>
       <c r="H37" s="5">
-        <f>SUM(H36:H36)</f>
+        <f t="shared" si="4"/>
         <v>183.7</v>
       </c>
       <c r="I37" s="5">
-        <f>SUM(I36:I36)</f>
+        <f t="shared" si="4"/>
         <v>177.3</v>
       </c>
       <c r="J37" s="5">
-        <f>SUM(J36:J36)</f>
+        <f t="shared" si="4"/>
         <v>207.9</v>
       </c>
       <c r="K37" s="5">
-        <f>SUM(K36:K36)</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="L37" s="5">
-        <f>SUM(L36:L36)</f>
+        <f t="shared" si="4"/>
         <v>31.5</v>
       </c>
       <c r="M37" s="5">
-        <f>SUM(M36:M36)</f>
+        <f t="shared" si="4"/>
         <v>20.6</v>
       </c>
       <c r="N37" s="5">
-        <f>SUM(N36:N36)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
   <si>
     <t>項目</t>
   </si>
@@ -205,7 +205,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>東部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離島</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2876,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2932,880 +2944,880 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1168.1999999999998</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1505.8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1374.3000000000002</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1215.8</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1527.4999999999998</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1725.6</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1182.3</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1795.1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2795.9</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2247.3000000000002</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1758.9</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1241.9000000000001</v>
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>103.9</v>
+      </c>
+      <c r="D2">
+        <v>174.8</v>
+      </c>
+      <c r="E2">
+        <v>194.5</v>
+      </c>
+      <c r="F2">
+        <v>179.3</v>
+      </c>
+      <c r="G2">
+        <v>216.1</v>
+      </c>
+      <c r="H2">
+        <v>243.4</v>
+      </c>
+      <c r="I2">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="J2">
+        <v>202.9</v>
+      </c>
+      <c r="K2">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="L2">
+        <v>173.9</v>
+      </c>
+      <c r="M2">
+        <v>120.7</v>
+      </c>
+      <c r="N2">
+        <v>97.6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5">
-        <v>282.40000000000003</v>
-      </c>
-      <c r="D3" s="5">
-        <v>586.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>695.2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1079</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1857.3</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2439</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2395.1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2626.1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1490.7</v>
-      </c>
-      <c r="L3" s="5">
-        <v>408.9</v>
-      </c>
-      <c r="M3" s="5">
-        <v>205.39999999999998</v>
-      </c>
-      <c r="N3" s="5">
-        <v>234.9</v>
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>294.3</v>
+      </c>
+      <c r="D3">
+        <v>329.2</v>
+      </c>
+      <c r="E3">
+        <v>281.8</v>
+      </c>
+      <c r="F3">
+        <v>247.9</v>
+      </c>
+      <c r="G3">
+        <v>321.2</v>
+      </c>
+      <c r="H3">
+        <v>345.8</v>
+      </c>
+      <c r="I3">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="J3">
+        <v>422.5</v>
+      </c>
+      <c r="K3">
+        <v>758.5</v>
+      </c>
+      <c r="L3">
+        <v>703.5</v>
+      </c>
+      <c r="M3">
+        <v>534.70000000000005</v>
+      </c>
+      <c r="N3">
+        <v>357.6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5">
-        <v>68.699999999999989</v>
-      </c>
-      <c r="D4" s="5">
-        <v>123.9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>157.4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>274.10000000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>647.69999999999993</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1314.8000000000002</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1308.0999999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1453.6</v>
-      </c>
-      <c r="K4" s="5">
-        <v>863.5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>215.4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>111</v>
-      </c>
-      <c r="N4" s="5">
-        <v>80.7</v>
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>83.2</v>
+      </c>
+      <c r="D4">
+        <v>170.3</v>
+      </c>
+      <c r="E4">
+        <v>180.4</v>
+      </c>
+      <c r="F4">
+        <v>177.8</v>
+      </c>
+      <c r="G4">
+        <v>234.5</v>
+      </c>
+      <c r="H4">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="I4">
+        <v>245.1</v>
+      </c>
+      <c r="J4">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="K4">
+        <v>360.5</v>
+      </c>
+      <c r="L4">
+        <v>148.9</v>
+      </c>
+      <c r="M4">
+        <v>83.1</v>
+      </c>
+      <c r="N4">
+        <v>73.3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5">
-        <v>597.19999999999993</v>
-      </c>
-      <c r="D5" s="5">
-        <v>636.70000000000005</v>
-      </c>
-      <c r="E5" s="5">
-        <v>521.4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>601.70000000000005</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1178.8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1511.9999999999998</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1499.1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1827.1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2412.5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1741.1000000000001</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1032.1000000000001</v>
-      </c>
-      <c r="N5" s="5">
-        <v>622.29999999999995</v>
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>232.6</v>
+      </c>
+      <c r="D5">
+        <v>273.5</v>
+      </c>
+      <c r="E5">
+        <v>227.1</v>
+      </c>
+      <c r="F5">
+        <v>207.2</v>
+      </c>
+      <c r="G5">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="H5">
+        <v>314.8</v>
+      </c>
+      <c r="I5">
+        <v>247.7</v>
+      </c>
+      <c r="J5">
+        <v>439.5</v>
+      </c>
+      <c r="K5">
+        <v>717.4</v>
+      </c>
+      <c r="L5">
+        <v>683.9</v>
+      </c>
+      <c r="M5">
+        <v>488.8</v>
+      </c>
+      <c r="N5">
+        <v>289.10000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D6" s="5">
-        <v>30.8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>44.9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>67.7</v>
-      </c>
-      <c r="G6" s="5">
-        <v>135.4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>183.7</v>
-      </c>
-      <c r="I6" s="5">
-        <v>177.3</v>
-      </c>
-      <c r="J6" s="5">
-        <v>207.9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>120</v>
-      </c>
-      <c r="L6" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>20.6</v>
-      </c>
-      <c r="N6" s="5">
-        <v>17</v>
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>331.6</v>
+      </c>
+      <c r="D6">
+        <v>397</v>
+      </c>
+      <c r="E6">
+        <v>321</v>
+      </c>
+      <c r="F6">
+        <v>242</v>
+      </c>
+      <c r="G6">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="H6">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="I6">
+        <v>148.4</v>
+      </c>
+      <c r="J6">
+        <v>210.1</v>
+      </c>
+      <c r="K6">
+        <v>423.5</v>
+      </c>
+      <c r="L6">
+        <v>400.3</v>
+      </c>
+      <c r="M6">
+        <v>399.6</v>
+      </c>
+      <c r="N6">
+        <v>311.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C7">
-        <v>103.9</v>
+        <v>122.6</v>
       </c>
       <c r="D7">
-        <v>174.8</v>
+        <v>161</v>
       </c>
       <c r="E7">
-        <v>194.5</v>
+        <v>169.5</v>
       </c>
       <c r="F7">
-        <v>179.3</v>
+        <v>161.6</v>
       </c>
       <c r="G7">
-        <v>216.1</v>
+        <v>203.2</v>
       </c>
       <c r="H7">
-        <v>243.4</v>
+        <v>194.1</v>
       </c>
       <c r="I7">
-        <v>149.19999999999999</v>
+        <v>125.8</v>
       </c>
       <c r="J7">
-        <v>202.9</v>
+        <v>198</v>
       </c>
       <c r="K7">
-        <v>299.10000000000002</v>
+        <v>236.9</v>
       </c>
       <c r="L7">
-        <v>173.9</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="M7">
-        <v>120.7</v>
+        <v>132</v>
       </c>
       <c r="N7">
-        <v>97.6</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C8">
-        <v>294.3</v>
+        <v>62.2</v>
       </c>
       <c r="D8">
-        <v>329.2</v>
+        <v>94.2</v>
       </c>
       <c r="E8">
-        <v>281.8</v>
+        <v>85.9</v>
       </c>
       <c r="F8">
-        <v>247.9</v>
+        <v>87</v>
       </c>
       <c r="G8">
-        <v>321.2</v>
+        <v>195.4</v>
       </c>
       <c r="H8">
-        <v>345.8</v>
+        <v>221.7</v>
       </c>
       <c r="I8">
-        <v>266.10000000000002</v>
+        <v>205.2</v>
       </c>
       <c r="J8">
-        <v>422.5</v>
+        <v>242</v>
       </c>
       <c r="K8">
-        <v>758.5</v>
+        <v>399.2</v>
       </c>
       <c r="L8">
-        <v>703.5</v>
+        <v>362.7</v>
       </c>
       <c r="M8">
-        <v>534.70000000000005</v>
+        <v>152.1</v>
       </c>
       <c r="N8">
-        <v>357.6</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C9">
-        <v>83.2</v>
+        <v>362.8</v>
       </c>
       <c r="D9">
-        <v>170.3</v>
+        <v>329.3</v>
       </c>
       <c r="E9">
-        <v>180.4</v>
+        <v>200.3</v>
       </c>
       <c r="F9">
-        <v>177.8</v>
+        <v>186.9</v>
       </c>
       <c r="G9">
-        <v>234.5</v>
+        <v>261.8</v>
       </c>
       <c r="H9">
-        <v>325.89999999999998</v>
+        <v>246</v>
       </c>
       <c r="I9">
-        <v>245.1</v>
+        <v>177.2</v>
       </c>
       <c r="J9">
-        <v>322.10000000000002</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="K9">
-        <v>360.5</v>
+        <v>535.29999999999995</v>
       </c>
       <c r="L9">
-        <v>148.9</v>
+        <v>744.8</v>
       </c>
       <c r="M9">
-        <v>83.1</v>
+        <v>682</v>
       </c>
       <c r="N9">
-        <v>73.3</v>
+        <v>433.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C10">
-        <v>232.6</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>273.5</v>
+        <v>182.3</v>
       </c>
       <c r="E10">
-        <v>227.1</v>
+        <v>127.5</v>
       </c>
       <c r="F10">
-        <v>207.2</v>
+        <v>138.4</v>
       </c>
       <c r="G10">
-        <v>267.39999999999998</v>
+        <v>211.7</v>
       </c>
       <c r="H10">
-        <v>314.8</v>
+        <v>214.2</v>
       </c>
       <c r="I10">
-        <v>247.7</v>
+        <v>155.1</v>
       </c>
       <c r="J10">
-        <v>439.5</v>
+        <v>247.8</v>
       </c>
       <c r="K10">
-        <v>717.4</v>
+        <v>470</v>
       </c>
       <c r="L10">
-        <v>683.9</v>
+        <v>442</v>
       </c>
       <c r="M10">
-        <v>488.8</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="N10">
-        <v>289.10000000000002</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>331.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D11">
-        <v>397</v>
+        <v>30.8</v>
       </c>
       <c r="E11">
-        <v>321</v>
+        <v>44.9</v>
       </c>
       <c r="F11">
-        <v>242</v>
+        <v>67.7</v>
       </c>
       <c r="G11">
-        <v>285.10000000000002</v>
+        <v>135.4</v>
       </c>
       <c r="H11">
-        <v>301.60000000000002</v>
+        <v>183.7</v>
       </c>
       <c r="I11">
-        <v>148.4</v>
+        <v>177.3</v>
       </c>
       <c r="J11">
-        <v>210.1</v>
+        <v>207.9</v>
       </c>
       <c r="K11">
-        <v>423.5</v>
+        <v>120</v>
       </c>
       <c r="L11">
-        <v>400.3</v>
+        <v>31.5</v>
       </c>
       <c r="M11">
-        <v>399.6</v>
+        <v>20.6</v>
       </c>
       <c r="N11">
-        <v>311.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C12">
-        <v>122.6</v>
+        <v>17.5</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>50.7</v>
       </c>
       <c r="E12">
-        <v>169.5</v>
+        <v>59.5</v>
       </c>
       <c r="F12">
-        <v>161.6</v>
+        <v>88.3</v>
       </c>
       <c r="G12">
-        <v>203.2</v>
+        <v>118.3</v>
       </c>
       <c r="H12">
-        <v>194.1</v>
+        <v>153.9</v>
       </c>
       <c r="I12">
-        <v>125.8</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="J12">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K12">
-        <v>236.9</v>
+        <v>112.7</v>
       </c>
       <c r="L12">
-        <v>136.80000000000001</v>
+        <v>28.4</v>
       </c>
       <c r="M12">
-        <v>132</v>
+        <v>21.2</v>
       </c>
       <c r="N12">
-        <v>112.5</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>62.2</v>
+        <v>17.3</v>
       </c>
       <c r="D13">
-        <v>94.2</v>
+        <v>28.1</v>
       </c>
       <c r="E13">
-        <v>85.9</v>
+        <v>38.5</v>
       </c>
       <c r="F13">
-        <v>87</v>
+        <v>79.5</v>
       </c>
       <c r="G13">
-        <v>195.4</v>
+        <v>173.6</v>
       </c>
       <c r="H13">
-        <v>221.7</v>
+        <v>371.5</v>
       </c>
       <c r="I13">
-        <v>205.2</v>
+        <v>357.7</v>
       </c>
       <c r="J13">
-        <v>242</v>
+        <v>395.1</v>
       </c>
       <c r="K13">
-        <v>399.2</v>
+        <v>178</v>
       </c>
       <c r="L13">
-        <v>362.7</v>
+        <v>27.8</v>
       </c>
       <c r="M13">
-        <v>152.1</v>
+        <v>16.7</v>
       </c>
       <c r="N13">
-        <v>69.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C14">
-        <v>362.8</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>329.3</v>
+        <v>20.5</v>
       </c>
       <c r="E14">
-        <v>200.3</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F14">
-        <v>186.9</v>
+        <v>69.8</v>
       </c>
       <c r="G14">
-        <v>261.8</v>
+        <v>197.4</v>
       </c>
       <c r="H14">
-        <v>246</v>
+        <v>415.3</v>
       </c>
       <c r="I14">
-        <v>177.2</v>
+        <v>390.9</v>
       </c>
       <c r="J14">
-        <v>279.89999999999998</v>
+        <v>416.7</v>
       </c>
       <c r="K14">
-        <v>535.29999999999995</v>
+        <v>241.9</v>
       </c>
       <c r="L14">
-        <v>744.8</v>
+        <v>42.7</v>
       </c>
       <c r="M14">
-        <v>682</v>
+        <v>18.7</v>
       </c>
       <c r="N14">
-        <v>433.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C15">
-        <v>147</v>
+        <v>23.6</v>
       </c>
       <c r="D15">
-        <v>182.3</v>
+        <v>57.4</v>
       </c>
       <c r="E15">
-        <v>127.5</v>
+        <v>63.4</v>
       </c>
       <c r="F15">
-        <v>138.4</v>
+        <v>103</v>
       </c>
       <c r="G15">
-        <v>211.7</v>
+        <v>176.2</v>
       </c>
       <c r="H15">
-        <v>214.2</v>
+        <v>314</v>
       </c>
       <c r="I15">
-        <v>155.1</v>
+        <v>369.9</v>
       </c>
       <c r="J15">
-        <v>247.8</v>
+        <v>380.2</v>
       </c>
       <c r="K15">
-        <v>470</v>
+        <v>222.6</v>
       </c>
       <c r="L15">
-        <v>442</v>
+        <v>27.5</v>
       </c>
       <c r="M15">
-        <v>325.10000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="N15">
-        <v>176.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C16">
-        <v>16.899999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="D16">
-        <v>30.8</v>
+        <v>89.8</v>
       </c>
       <c r="E16">
-        <v>44.9</v>
+        <v>103</v>
       </c>
       <c r="F16">
-        <v>67.7</v>
+        <v>145.4</v>
       </c>
       <c r="G16">
-        <v>135.4</v>
+        <v>231.5</v>
       </c>
       <c r="H16">
-        <v>183.7</v>
+        <v>331.2</v>
       </c>
       <c r="I16">
-        <v>177.3</v>
+        <v>307.89999999999998</v>
       </c>
       <c r="J16">
-        <v>207.9</v>
+        <v>302</v>
       </c>
       <c r="K16">
-        <v>120</v>
+        <v>164.5</v>
       </c>
       <c r="L16">
-        <v>31.5</v>
+        <v>23.2</v>
       </c>
       <c r="M16">
-        <v>20.6</v>
+        <v>18.3</v>
       </c>
       <c r="N16">
-        <v>17</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C17">
-        <v>17.5</v>
+        <v>71.7</v>
       </c>
       <c r="D17">
-        <v>50.7</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="E17">
-        <v>59.5</v>
+        <v>166.5</v>
       </c>
       <c r="F17">
-        <v>88.3</v>
+        <v>254.2</v>
       </c>
       <c r="G17">
-        <v>118.3</v>
+        <v>493.6</v>
       </c>
       <c r="H17">
-        <v>153.9</v>
+        <v>649.6</v>
       </c>
       <c r="I17">
-        <v>157.69999999999999</v>
+        <v>668.3</v>
       </c>
       <c r="J17">
-        <v>181</v>
+        <v>809.3</v>
       </c>
       <c r="K17">
-        <v>112.7</v>
+        <v>432.9</v>
       </c>
       <c r="L17">
-        <v>28.4</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="M17">
-        <v>21.2</v>
+        <v>46.3</v>
       </c>
       <c r="N17">
-        <v>24.2</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18">
-        <v>17.3</v>
+        <v>42.2</v>
       </c>
       <c r="D18">
-        <v>28.1</v>
+        <v>44.3</v>
       </c>
       <c r="E18">
-        <v>38.5</v>
+        <v>46.4</v>
       </c>
       <c r="F18">
-        <v>79.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="G18">
-        <v>173.6</v>
+        <v>192.2</v>
       </c>
       <c r="H18">
-        <v>371.5</v>
+        <v>364.4</v>
       </c>
       <c r="I18">
-        <v>357.7</v>
+        <v>391</v>
       </c>
       <c r="J18">
-        <v>395.1</v>
+        <v>429.8</v>
       </c>
       <c r="K18">
-        <v>178</v>
+        <v>408.7</v>
       </c>
       <c r="L18">
-        <v>27.8</v>
+        <v>182.9</v>
       </c>
       <c r="M18">
-        <v>16.7</v>
+        <v>82.1</v>
       </c>
       <c r="N18">
-        <v>14.4</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>83.1</v>
       </c>
       <c r="D19">
-        <v>20.5</v>
+        <v>120.5</v>
       </c>
       <c r="E19">
-        <v>38.799999999999997</v>
+        <v>139.1</v>
       </c>
       <c r="F19">
-        <v>69.8</v>
+        <v>244.4</v>
       </c>
       <c r="G19">
-        <v>197.4</v>
+        <v>414</v>
       </c>
       <c r="H19">
-        <v>415.3</v>
+        <v>488.2</v>
       </c>
       <c r="I19">
-        <v>390.9</v>
+        <v>445.6</v>
       </c>
       <c r="J19">
-        <v>416.7</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="K19">
-        <v>241.9</v>
+        <v>325.2</v>
       </c>
       <c r="L19">
-        <v>42.7</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="M19">
-        <v>18.7</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="N19">
-        <v>16.2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C20">
-        <v>23.6</v>
+        <v>64.5</v>
       </c>
       <c r="D20">
-        <v>57.4</v>
+        <v>142.1</v>
       </c>
       <c r="E20">
-        <v>63.4</v>
+        <v>168.1</v>
       </c>
       <c r="F20">
-        <v>103</v>
+        <v>164.1</v>
       </c>
       <c r="G20">
-        <v>176.2</v>
+        <v>232.8</v>
       </c>
       <c r="H20">
-        <v>314</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="I20">
-        <v>369.9</v>
+        <v>141</v>
       </c>
       <c r="J20">
-        <v>380.2</v>
+        <v>182.4</v>
       </c>
       <c r="K20">
-        <v>222.6</v>
+        <v>214.2</v>
       </c>
       <c r="L20">
-        <v>27.5</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>15.2</v>
+        <v>38.1</v>
       </c>
       <c r="N20">
-        <v>21.3</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C21">
-        <v>30.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D21">
-        <v>89.8</v>
+        <v>24.6</v>
       </c>
       <c r="E21">
-        <v>103</v>
+        <v>20.6</v>
       </c>
       <c r="F21">
-        <v>145.4</v>
+        <v>36.5</v>
       </c>
       <c r="G21">
-        <v>231.5</v>
+        <v>158.4</v>
       </c>
       <c r="H21">
-        <v>331.2</v>
+        <v>374.1</v>
       </c>
       <c r="I21">
-        <v>307.89999999999998</v>
+        <v>401.8</v>
       </c>
       <c r="J21">
-        <v>302</v>
+        <v>460.8</v>
       </c>
       <c r="K21">
-        <v>164.5</v>
+        <v>330.9</v>
       </c>
       <c r="L21">
-        <v>23.2</v>
+        <v>116.5</v>
       </c>
       <c r="M21">
-        <v>18.3</v>
+        <v>54.4</v>
       </c>
       <c r="N21">
         <v>25.9</v>
@@ -3813,579 +3825,499 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C22">
-        <v>71.7</v>
+        <v>67.2</v>
       </c>
       <c r="D22">
-        <v>137.30000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="E22">
-        <v>166.5</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F22">
-        <v>254.2</v>
+        <v>89.3</v>
       </c>
       <c r="G22">
-        <v>493.6</v>
+        <v>174.3</v>
       </c>
       <c r="H22">
-        <v>649.6</v>
+        <v>196.5</v>
       </c>
       <c r="I22">
-        <v>668.3</v>
+        <v>246.1</v>
       </c>
       <c r="J22">
-        <v>809.3</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="K22">
-        <v>432.9</v>
+        <v>405.8</v>
       </c>
       <c r="L22">
-        <v>146.69999999999999</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="M22">
-        <v>46.3</v>
+        <v>126.6</v>
       </c>
       <c r="N22">
-        <v>55.9</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>42.2</v>
+        <v>248.1</v>
       </c>
       <c r="D23">
-        <v>44.3</v>
+        <v>203.9</v>
       </c>
       <c r="E23">
-        <v>46.4</v>
+        <v>154</v>
       </c>
       <c r="F23">
-        <v>72.400000000000006</v>
+        <v>149</v>
       </c>
       <c r="G23">
-        <v>192.2</v>
+        <v>249.3</v>
       </c>
       <c r="H23">
-        <v>364.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="I23">
-        <v>391</v>
+        <v>231.2</v>
       </c>
       <c r="J23">
-        <v>429.8</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="K23">
-        <v>408.7</v>
+        <v>384.2</v>
       </c>
       <c r="L23">
-        <v>182.9</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="M23">
-        <v>82.1</v>
+        <v>267</v>
       </c>
       <c r="N23">
-        <v>47.3</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>83.1</v>
+        <v>49.1</v>
       </c>
       <c r="D24">
-        <v>120.5</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>139.1</v>
+        <v>124.7</v>
       </c>
       <c r="F24">
-        <v>244.4</v>
+        <v>199.5</v>
       </c>
       <c r="G24">
-        <v>414</v>
+        <v>328.3</v>
       </c>
       <c r="H24">
-        <v>488.2</v>
+        <v>436.9</v>
       </c>
       <c r="I24">
-        <v>445.6</v>
+        <v>409.9</v>
       </c>
       <c r="J24">
-        <v>519.29999999999995</v>
+        <v>403.8</v>
       </c>
       <c r="K24">
-        <v>325.2</v>
+        <v>232.3</v>
       </c>
       <c r="L24">
-        <v>144.30000000000001</v>
+        <v>49.7</v>
       </c>
       <c r="M24">
-        <v>77.599999999999994</v>
+        <v>31.2</v>
       </c>
       <c r="N24">
-        <v>70</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C25">
-        <v>64.5</v>
+        <v>30.5</v>
       </c>
       <c r="D25">
-        <v>142.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E25">
-        <v>168.1</v>
+        <v>40.5</v>
       </c>
       <c r="F25">
-        <v>164.1</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="G25">
-        <v>232.8</v>
+        <v>155.9</v>
       </c>
       <c r="H25">
-        <v>261.10000000000002</v>
+        <v>227.8</v>
       </c>
       <c r="I25">
-        <v>141</v>
+        <v>270.5</v>
       </c>
       <c r="J25">
-        <v>182.4</v>
+        <v>302</v>
       </c>
       <c r="K25">
-        <v>214.2</v>
+        <v>344.6</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>182.3</v>
       </c>
       <c r="M25">
-        <v>38.1</v>
+        <v>79.2</v>
       </c>
       <c r="N25">
-        <v>47.7</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C26">
-        <v>17.899999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="D26">
-        <v>24.6</v>
+        <v>81.5</v>
       </c>
       <c r="E26">
-        <v>20.6</v>
+        <v>98.5</v>
       </c>
       <c r="F26">
-        <v>36.5</v>
+        <v>132.5</v>
       </c>
       <c r="G26">
-        <v>158.4</v>
+        <v>213.7</v>
       </c>
       <c r="H26">
-        <v>374.1</v>
+        <v>219.1</v>
       </c>
       <c r="I26">
-        <v>401.8</v>
+        <v>193.5</v>
       </c>
       <c r="J26">
-        <v>460.8</v>
+        <v>211.5</v>
       </c>
       <c r="K26">
-        <v>330.9</v>
+        <v>113.2</v>
       </c>
       <c r="L26">
-        <v>116.5</v>
+        <v>17.5</v>
       </c>
       <c r="M26">
-        <v>54.4</v>
+        <v>16.8</v>
       </c>
       <c r="N26">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
+      <c r="A27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>67.2</v>
+        <f t="shared" ref="C27:N27" si="0">SUM(C2:C26)/25</f>
+        <v>102.42799999999997</v>
       </c>
       <c r="D27">
-        <v>71.8</v>
+        <f t="shared" si="0"/>
+        <v>134.20400000000001</v>
       </c>
       <c r="E27">
-        <v>67.099999999999994</v>
+        <f t="shared" si="0"/>
+        <v>126.464</v>
       </c>
       <c r="F27">
-        <v>89.3</v>
+        <f t="shared" si="0"/>
+        <v>143.572</v>
       </c>
       <c r="G27">
-        <v>174.3</v>
+        <f t="shared" si="0"/>
+        <v>233.65199999999996</v>
       </c>
       <c r="H27">
-        <v>196.5</v>
+        <f t="shared" si="0"/>
+        <v>307.28800000000001</v>
       </c>
       <c r="I27">
-        <v>246.1</v>
+        <f t="shared" si="0"/>
+        <v>275.20400000000001</v>
       </c>
       <c r="J27">
-        <v>317.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>334.88400000000001</v>
       </c>
       <c r="K27">
-        <v>405.8</v>
+        <f t="shared" si="0"/>
+        <v>337.28399999999993</v>
       </c>
       <c r="L27">
-        <v>265.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>218.04000000000005</v>
       </c>
       <c r="M27">
-        <v>126.6</v>
+        <f t="shared" si="0"/>
+        <v>153.92399999999995</v>
       </c>
       <c r="N27">
-        <v>76.5</v>
+        <f t="shared" si="0"/>
+        <v>107.12000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28">
-        <v>248.1</v>
-      </c>
-      <c r="D28">
-        <v>203.9</v>
-      </c>
-      <c r="E28">
-        <v>154</v>
-      </c>
-      <c r="F28">
-        <v>149</v>
-      </c>
-      <c r="G28">
-        <v>249.3</v>
-      </c>
-      <c r="H28">
-        <v>287.39999999999998</v>
-      </c>
-      <c r="I28">
-        <v>231.2</v>
-      </c>
-      <c r="J28">
-        <v>287.89999999999998</v>
-      </c>
-      <c r="K28">
-        <v>384.2</v>
-      </c>
-      <c r="L28">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="M28">
-        <v>267</v>
-      </c>
-      <c r="N28">
-        <v>212.2</v>
+      <c r="A28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1168.1999999999998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1505.8</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1374.3000000000002</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1215.8</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1527.4999999999998</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1725.6</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1182.3</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1795.1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2795.9</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2247.3000000000002</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1758.9</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1241.9000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>49.1</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>124.7</v>
-      </c>
-      <c r="F29">
-        <v>199.5</v>
-      </c>
-      <c r="G29">
-        <v>328.3</v>
-      </c>
-      <c r="H29">
-        <v>436.9</v>
-      </c>
-      <c r="I29">
-        <v>409.9</v>
-      </c>
-      <c r="J29">
-        <v>403.8</v>
-      </c>
-      <c r="K29">
-        <v>232.3</v>
-      </c>
-      <c r="L29">
-        <v>49.7</v>
-      </c>
-      <c r="M29">
-        <v>31.2</v>
-      </c>
-      <c r="N29">
-        <v>36.5</v>
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>282.40000000000003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>586.5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>695.2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1079</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1857.3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2439</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2395.1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2626.1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1490.7</v>
+      </c>
+      <c r="L29" s="5">
+        <v>408.9</v>
+      </c>
+      <c r="M29" s="5">
+        <v>205.39999999999998</v>
+      </c>
+      <c r="N29" s="5">
+        <v>234.9</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30">
-        <v>30.5</v>
-      </c>
-      <c r="D30">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="E30">
-        <v>40.5</v>
-      </c>
-      <c r="F30">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="G30">
-        <v>155.9</v>
-      </c>
-      <c r="H30">
-        <v>227.8</v>
-      </c>
-      <c r="I30">
-        <v>270.5</v>
-      </c>
-      <c r="J30">
-        <v>302</v>
-      </c>
-      <c r="K30">
-        <v>344.6</v>
-      </c>
-      <c r="L30">
-        <v>182.3</v>
-      </c>
-      <c r="M30">
-        <v>79.2</v>
-      </c>
-      <c r="N30">
-        <v>40.5</v>
+      <c r="A30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5">
+        <v>68.699999999999989</v>
+      </c>
+      <c r="D30" s="5">
+        <v>123.9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>157.4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="G30" s="5">
+        <v>647.69999999999993</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1314.8000000000002</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1308.0999999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1453.6</v>
+      </c>
+      <c r="K30" s="5">
+        <v>863.5</v>
+      </c>
+      <c r="L30" s="5">
+        <v>215.4</v>
+      </c>
+      <c r="M30" s="5">
+        <v>111</v>
+      </c>
+      <c r="N30" s="5">
+        <v>80.7</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31">
-        <v>24.6</v>
-      </c>
-      <c r="D31">
-        <v>81.5</v>
-      </c>
-      <c r="E31">
-        <v>98.5</v>
-      </c>
-      <c r="F31">
-        <v>132.5</v>
-      </c>
-      <c r="G31">
-        <v>213.7</v>
-      </c>
-      <c r="H31">
-        <v>219.1</v>
-      </c>
-      <c r="I31">
-        <v>193.5</v>
-      </c>
-      <c r="J31">
-        <v>211.5</v>
-      </c>
-      <c r="K31">
-        <v>113.2</v>
-      </c>
-      <c r="L31">
-        <v>17.5</v>
-      </c>
-      <c r="M31">
-        <v>16.8</v>
-      </c>
-      <c r="N31">
-        <v>25.3</v>
+      <c r="A31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>597.19999999999993</v>
+      </c>
+      <c r="D31" s="5">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="E31" s="5">
+        <v>521.4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1178.8</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1511.9999999999998</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1499.1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1827.1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2412.5</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1741.1000000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1032.1000000000001</v>
+      </c>
+      <c r="N31" s="5">
+        <v>622.29999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:N32" si="0">SUM(C7:C31)/25</f>
-        <v>102.42799999999997</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>134.20400000000001</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>126.464</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>143.572</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>233.65199999999996</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>307.28800000000001</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>275.20400000000001</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>334.88400000000001</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>337.28399999999993</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>218.04000000000005</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>153.92399999999995</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>107.12000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="E32" s="5">
+        <v>44.9</v>
+      </c>
+      <c r="F32" s="5">
+        <v>67.7</v>
+      </c>
+      <c r="G32" s="5">
+        <v>135.4</v>
+      </c>
+      <c r="H32" s="5">
+        <v>183.7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>177.3</v>
+      </c>
+      <c r="J32" s="5">
+        <v>207.9</v>
+      </c>
+      <c r="K32" s="5">
+        <v>120</v>
+      </c>
+      <c r="L32" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="M32" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="N32" s="5">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5684,51 +5616,51 @@
         <v>52</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:N37" si="4">SUM(C36:C36)</f>
+        <f>SUM(C36:C36)</f>
         <v>16.899999999999999</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(D36:D36)</f>
         <v>30.8</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(E36:E36)</f>
         <v>44.9</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(F36:F36)</f>
         <v>67.7</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(G36:G36)</f>
         <v>135.4</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(H36:H36)</f>
         <v>183.7</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(I36:I36)</f>
         <v>177.3</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(J36:J36)</f>
         <v>207.9</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(K36:K36)</f>
         <v>120</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(L36:L36)</f>
         <v>31.5</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(M36:M36)</f>
         <v>20.6</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(N36:N36)</f>
         <v>17</v>
       </c>
     </row>

--- a/chart7/data/poster用2.xlsx
+++ b/chart7/data/poster用2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全台各種用水" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="58">
   <si>
     <t>項目</t>
   </si>
@@ -201,27 +201,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>離島</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各區月降雨量</t>
+    <t>月降雨總和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,9 +797,9 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,7 +881,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +922,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,7 +963,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,9 +1018,9 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1120,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1170,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1220,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1370,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1420,7 @@
         <v>1924.09</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1470,7 @@
         <v>4854.0600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1520,7 @@
         <v>2462.5700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1570,7 @@
         <v>2492.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1620,7 @@
         <v>11733.62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1664,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1708,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1752,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1836,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1880,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1924,7 @@
         <v>3950.09</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +1968,7 @@
         <v>6216.06</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2012,7 @@
         <v>3734.57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2056,7 @@
         <v>2622.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2100,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2178,9 +2158,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2216,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -2292,7 +2272,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2328,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2384,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2440,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2496,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2572,7 +2552,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2628,7 +2608,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2706,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2768,7 +2748,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2804,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2888,18 +2868,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O27" sqref="O1:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2942,8 +2923,9 @@
       <c r="N1" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2986,8 +2968,9 @@
       <c r="N2">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3030,8 +3013,9 @@
       <c r="N3">
         <v>357.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3074,8 +3058,9 @@
       <c r="N4">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3118,8 +3103,9 @@
       <c r="N5">
         <v>289.10000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3162,8 +3148,9 @@
       <c r="N6">
         <v>311.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3206,8 +3193,9 @@
       <c r="N7">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3250,8 +3238,9 @@
       <c r="N8">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3294,8 +3283,9 @@
       <c r="N9">
         <v>433.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3338,8 +3328,9 @@
       <c r="N10">
         <v>176.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3382,8 +3373,9 @@
       <c r="N11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3426,8 +3418,9 @@
       <c r="N12">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3470,8 +3463,9 @@
       <c r="N13">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3514,8 +3508,9 @@
       <c r="N14">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3558,8 +3553,9 @@
       <c r="N15">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3602,8 +3598,9 @@
       <c r="N16">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3646,8 +3643,9 @@
       <c r="N17">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3690,8 +3688,9 @@
       <c r="N18">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3734,8 +3733,9 @@
       <c r="N19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3778,8 +3778,9 @@
       <c r="N20">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3822,8 +3823,9 @@
       <c r="N21">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3866,8 +3868,9 @@
       <c r="N22">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3910,8 +3913,9 @@
       <c r="N23">
         <v>212.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3954,8 +3958,9 @@
       <c r="N24">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3998,8 +4003,9 @@
       <c r="N25">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4042,8 +4048,9 @@
       <c r="N26">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>49</v>
       </c>
@@ -4098,226 +4105,1110 @@
         <f t="shared" si="0"/>
         <v>107.12000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1168.1999999999998</v>
+      <c r="C28">
+        <v>2155.4</v>
       </c>
       <c r="D28" s="5">
-        <v>1505.8</v>
+        <v>2155.4</v>
       </c>
       <c r="E28" s="5">
-        <v>1374.3000000000002</v>
+        <v>2155.4</v>
       </c>
       <c r="F28" s="5">
-        <v>1215.8</v>
+        <v>2155.4</v>
       </c>
       <c r="G28" s="5">
-        <v>1527.4999999999998</v>
+        <v>2155.4</v>
       </c>
       <c r="H28" s="5">
-        <v>1725.6</v>
+        <v>2155.4</v>
       </c>
       <c r="I28" s="5">
-        <v>1182.3</v>
+        <v>2155.4</v>
       </c>
       <c r="J28" s="5">
-        <v>1795.1</v>
+        <v>2155.4</v>
       </c>
       <c r="K28" s="5">
-        <v>2795.9</v>
+        <v>2155.4</v>
       </c>
       <c r="L28" s="5">
-        <v>2247.3000000000002</v>
+        <v>2155.4</v>
       </c>
       <c r="M28" s="5">
-        <v>1758.9</v>
+        <v>2155.4</v>
       </c>
       <c r="N28" s="5">
-        <v>1241.9000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="5">
-        <v>282.40000000000003</v>
+        <v>2155.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>4863.1000000000004</v>
       </c>
       <c r="D29" s="5">
-        <v>586.5</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="E29" s="5">
-        <v>695.2</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="F29" s="5">
-        <v>1079</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="G29" s="5">
-        <v>1857.3</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="H29" s="5">
-        <v>2439</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="I29" s="5">
-        <v>2395.1</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="J29" s="5">
-        <v>2626.1</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="K29" s="5">
-        <v>1490.7</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="L29" s="5">
-        <v>408.9</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="M29" s="5">
-        <v>205.39999999999998</v>
+        <v>4863.1000000000004</v>
       </c>
       <c r="N29" s="5">
-        <v>234.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5">
-        <v>68.699999999999989</v>
+        <v>4863.1000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>2405.1</v>
       </c>
       <c r="D30" s="5">
-        <v>123.9</v>
+        <v>2405.1</v>
       </c>
       <c r="E30" s="5">
-        <v>157.4</v>
+        <v>2405.1</v>
       </c>
       <c r="F30" s="5">
-        <v>274.10000000000002</v>
+        <v>2405.1</v>
       </c>
       <c r="G30" s="5">
-        <v>647.69999999999993</v>
+        <v>2405.1</v>
       </c>
       <c r="H30" s="5">
-        <v>1314.8000000000002</v>
+        <v>2405.1</v>
       </c>
       <c r="I30" s="5">
-        <v>1308.0999999999999</v>
+        <v>2405.1</v>
       </c>
       <c r="J30" s="5">
-        <v>1453.6</v>
+        <v>2405.1</v>
       </c>
       <c r="K30" s="5">
-        <v>863.5</v>
+        <v>2405.1</v>
       </c>
       <c r="L30" s="5">
-        <v>215.4</v>
+        <v>2405.1</v>
       </c>
       <c r="M30" s="5">
-        <v>111</v>
+        <v>2405.1</v>
       </c>
       <c r="N30" s="5">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="5">
-        <v>597.19999999999993</v>
+        <v>2405.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>4389.0000000000009</v>
       </c>
       <c r="D31" s="5">
-        <v>636.70000000000005</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="E31" s="5">
-        <v>521.4</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="F31" s="5">
-        <v>601.70000000000005</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="G31" s="5">
-        <v>1178.8</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="H31" s="5">
-        <v>1511.9999999999998</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="I31" s="5">
-        <v>1499.1</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="J31" s="5">
-        <v>1827.1</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="K31" s="5">
-        <v>2412.5</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="L31" s="5">
-        <v>1741.1000000000001</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="M31" s="5">
-        <v>1032.1000000000001</v>
+        <v>4389.0000000000009</v>
       </c>
       <c r="N31" s="5">
-        <v>622.29999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="5">
-        <v>16.899999999999999</v>
+        <v>4389.0000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>3772</v>
       </c>
       <c r="D32" s="5">
-        <v>30.8</v>
+        <v>3772</v>
       </c>
       <c r="E32" s="5">
-        <v>44.9</v>
+        <v>3772</v>
       </c>
       <c r="F32" s="5">
-        <v>67.7</v>
+        <v>3772</v>
       </c>
       <c r="G32" s="5">
-        <v>135.4</v>
+        <v>3772</v>
       </c>
       <c r="H32" s="5">
-        <v>183.7</v>
+        <v>3772</v>
       </c>
       <c r="I32" s="5">
-        <v>177.3</v>
+        <v>3772</v>
       </c>
       <c r="J32" s="5">
-        <v>207.9</v>
+        <v>3772</v>
       </c>
       <c r="K32" s="5">
-        <v>120</v>
+        <v>3772</v>
       </c>
       <c r="L32" s="5">
-        <v>31.5</v>
+        <v>3772</v>
       </c>
       <c r="M32" s="5">
-        <v>20.6</v>
+        <v>3772</v>
       </c>
       <c r="N32" s="5">
-        <v>17</v>
-      </c>
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1954.0000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="M34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+      <c r="N34" s="5">
+        <v>2176.8000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>4439.8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="H35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="K35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="L35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="M35" s="5">
+        <v>4439.8</v>
+      </c>
+      <c r="N35" s="5">
+        <v>4439.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>2837.7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="M36" s="5">
+        <v>2837.7</v>
+      </c>
+      <c r="N36" s="5">
+        <v>2837.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>1053.7</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1053.7</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1053.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1013.4000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1698.2000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>1884.9</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1884.9</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1884.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>1774.3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1774.3</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1774.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>1773</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1773</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>3932.3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="F43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="I43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="L43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="M43" s="5">
+        <v>3932.3</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3932.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="K44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="L44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="M44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+      <c r="N44" s="5">
+        <v>2303.7000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="K45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="L45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="M45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+      <c r="N45" s="5">
+        <v>3071.2999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>1718.1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1718.1</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1718.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>2022.4</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="K47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="L47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="M47" s="5">
+        <v>2022.4</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2022.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>2104.4</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="K48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="L48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="M48" s="5">
+        <v>2104.4</v>
+      </c>
+      <c r="N48" s="5">
+        <v>2104.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="K49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="M49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+      <c r="N49" s="5">
+        <v>2979.7999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>2401.9</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="I50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="K50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="L50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="M50" s="5">
+        <v>2401.9</v>
+      </c>
+      <c r="N50" s="5">
+        <v>2401.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>1779.6</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1779.6</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1779.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>1347.7</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1347.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4334,14 +5225,14 @@
       <selection activeCell="C37" activeCellId="4" sqref="C8:N8 C17:N17 C24:N24 C33:N33 C37:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -4385,7 +5276,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -4429,7 +5320,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4473,7 +5364,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +5408,7 @@
         <v>289.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -4561,7 +5452,7 @@
         <v>311.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -4605,7 +5496,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -4658,12 +5549,12 @@
         <v>1241.9000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -4707,7 +5598,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -4751,7 +5642,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -4795,7 +5686,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -4839,7 +5730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -4883,7 +5774,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -4927,7 +5818,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -4980,12 +5871,12 @@
         <v>234.9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -5029,7 +5920,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -5073,7 +5964,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -5117,7 +6008,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -5161,7 +6052,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5214,7 +6105,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -5232,7 +6123,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
@@ -5276,7 +6167,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -5320,7 +6211,7 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -5364,7 +6255,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -5408,7 +6299,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -5452,7 +6343,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -5496,7 +6387,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -5549,7 +6440,7 @@
         <v>622.29999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -5567,7 +6458,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
@@ -5611,56 +6502,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="C37">
-        <f>SUM(C36:C36)</f>
+        <f t="shared" ref="C37:N37" si="4">SUM(C36:C36)</f>
         <v>16.899999999999999</v>
       </c>
       <c r="D37" s="5">
-        <f>SUM(D36:D36)</f>
+        <f t="shared" si="4"/>
         <v>30.8</v>
       </c>
       <c r="E37" s="5">
-        <f>SUM(E36:E36)</f>
+        <f t="shared" si="4"/>
         <v>44.9</v>
       </c>
       <c r="F37" s="5">
-        <f>SUM(F36:F36)</f>
+        <f t="shared" si="4"/>
         <v>67.7</v>
       </c>
       <c r="G37" s="5">
-        <f>SUM(G36:G36)</f>
+        <f t="shared" si="4"/>
         <v>135.4</v>
       </c>
       <c r="H37" s="5">
-        <f>SUM(H36:H36)</f>
+        <f t="shared" si="4"/>
         <v>183.7</v>
       </c>
       <c r="I37" s="5">
-        <f>SUM(I36:I36)</f>
+        <f t="shared" si="4"/>
         <v>177.3</v>
       </c>
       <c r="J37" s="5">
-        <f>SUM(J36:J36)</f>
+        <f t="shared" si="4"/>
         <v>207.9</v>
       </c>
       <c r="K37" s="5">
-        <f>SUM(K36:K36)</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="L37" s="5">
-        <f>SUM(L36:L36)</f>
+        <f t="shared" si="4"/>
         <v>31.5</v>
       </c>
       <c r="M37" s="5">
-        <f>SUM(M36:M36)</f>
+        <f t="shared" si="4"/>
         <v>20.6</v>
       </c>
       <c r="N37" s="5">
-        <f>SUM(N36:N36)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
